--- a/BackTest/2019-10-17 BackTest FAB.xlsx
+++ b/BackTest/2019-10-17 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.4400000000000004</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-6.976744186046367</v>
+      </c>
       <c r="L12" t="n">
         <v>6.295</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.5200000000000005</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-24.00000000000006</v>
+      </c>
       <c r="L13" t="n">
         <v>6.283999999999999</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.6000000000000005</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>22.72727272727292</v>
+      </c>
       <c r="L14" t="n">
         <v>6.279999999999999</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.620000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-15.15151515151513</v>
+      </c>
       <c r="L15" t="n">
         <v>6.287999999999998</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.6400000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-15.15151515151513</v>
+      </c>
       <c r="L16" t="n">
         <v>6.280999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.6400000000000006</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-15.15151515151513</v>
+      </c>
       <c r="L17" t="n">
         <v>6.275999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.7200000000000006</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-31.70731707317077</v>
+      </c>
       <c r="L18" t="n">
         <v>6.262999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.7800000000000002</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-31.70731707317077</v>
+      </c>
       <c r="L19" t="n">
         <v>6.255999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.8300000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-36.36363636363644</v>
+      </c>
       <c r="L20" t="n">
         <v>6.237999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.8300000000000001</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-28.20512820512831</v>
+      </c>
       <c r="L21" t="n">
         <v>6.221999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.8399999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-12.50000000000004</v>
+      </c>
       <c r="L22" t="n">
         <v>6.209999999999998</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.9299999999999997</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.521739130434747</v>
+        <v>-9.090909090909188</v>
       </c>
       <c r="L23" t="n">
         <v>6.214999999999998</v>
@@ -1466,7 +1488,7 @@
         <v>1.08</v>
       </c>
       <c r="K24" t="n">
-        <v>-20.75471698113216</v>
+        <v>-34.78260869565227</v>
       </c>
       <c r="L24" t="n">
         <v>6.196999999999997</v>
@@ -1515,7 +1537,7 @@
         <v>1.220000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>5.66037735849062</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>6.194999999999997</v>
@@ -1564,7 +1586,7 @@
         <v>1.240000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>-9.473684210526308</v>
+        <v>-3.333333333333408</v>
       </c>
       <c r="L26" t="n">
         <v>6.192999999999997</v>
@@ -1613,7 +1635,7 @@
         <v>1.240000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>-7.52688172043014</v>
+        <v>11.53846153846145</v>
       </c>
       <c r="L27" t="n">
         <v>6.190999999999997</v>
@@ -1662,7 +1684,7 @@
         <v>1.250000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>-8.510638297872353</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="L28" t="n">
         <v>6.195999999999998</v>
@@ -1711,7 +1733,7 @@
         <v>1.260000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>-9.473684210526308</v>
+        <v>6.97674418604656</v>
       </c>
       <c r="L29" t="n">
         <v>6.193999999999998</v>
@@ -1760,7 +1782,7 @@
         <v>1.27</v>
       </c>
       <c r="K30" t="n">
-        <v>-17.77777777777771</v>
+        <v>4.545454545454646</v>
       </c>
       <c r="L30" t="n">
         <v>6.195999999999998</v>
@@ -1809,7 +1831,7 @@
         <v>1.29</v>
       </c>
       <c r="K31" t="n">
-        <v>-13.33333333333335</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L31" t="n">
         <v>6.199999999999998</v>
@@ -1860,7 +1882,7 @@
         <v>1.33</v>
       </c>
       <c r="K32" t="n">
-        <v>-3.370786516853962</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>6.208999999999998</v>
@@ -1911,7 +1933,7 @@
         <v>1.33</v>
       </c>
       <c r="K33" t="n">
-        <v>6.172839506172821</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L33" t="n">
         <v>6.208999999999998</v>
@@ -1962,7 +1984,7 @@
         <v>1.49</v>
       </c>
       <c r="K34" t="n">
-        <v>-21.34831460674162</v>
+        <v>-55.55555555555578</v>
       </c>
       <c r="L34" t="n">
         <v>6.207999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>1.67</v>
       </c>
       <c r="K35" t="n">
-        <v>0.952380952380933</v>
+        <v>11.62790697674418</v>
       </c>
       <c r="L35" t="n">
         <v>6.210999999999998</v>
@@ -2064,7 +2086,7 @@
         <v>1.699999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>4.34782608695664</v>
       </c>
       <c r="L36" t="n">
         <v>6.212999999999998</v>
@@ -2115,7 +2137,7 @@
         <v>1.819999999999999</v>
       </c>
       <c r="K37" t="n">
-        <v>-10.16949152542375</v>
+        <v>-15.78947368421054</v>
       </c>
       <c r="L37" t="n">
         <v>6.202999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>1.949999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>7.317073170731704</v>
+        <v>7.246376811594192</v>
       </c>
       <c r="L38" t="n">
         <v>6.206999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>2.089999999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>-8.396946564885461</v>
+        <v>-9.756097560975636</v>
       </c>
       <c r="L39" t="n">
         <v>6.197999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>2.099999999999999</v>
       </c>
       <c r="K40" t="n">
-        <v>-3.937007874015738</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L40" t="n">
         <v>6.191</v>
@@ -2319,7 +2341,7 @@
         <v>2.109999999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.687499999999975</v>
+        <v>-17.94871794871794</v>
       </c>
       <c r="L41" t="n">
         <v>6.180999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>2.179999999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>1.492537313432806</v>
+        <v>-8.235294117647113</v>
       </c>
       <c r="L42" t="n">
         <v>6.173999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>2.209999999999997</v>
       </c>
       <c r="K43" t="n">
-        <v>-7.812499999999988</v>
+        <v>8.333333333333435</v>
       </c>
       <c r="L43" t="n">
         <v>6.164</v>
@@ -2472,7 +2494,7 @@
         <v>2.219999999999997</v>
       </c>
       <c r="K44" t="n">
-        <v>5.263157894736899</v>
+        <v>-20</v>
       </c>
       <c r="L44" t="n">
         <v>6.170999999999999</v>
@@ -2523,7 +2545,7 @@
         <v>2.229999999999997</v>
       </c>
       <c r="K45" t="n">
-        <v>-8.910891089108929</v>
+        <v>-16.98113207547175</v>
       </c>
       <c r="L45" t="n">
         <v>6.159000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>2.279999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>-11.53846153846159</v>
+        <v>-4.34782608695664</v>
       </c>
       <c r="L46" t="n">
         <v>6.145</v>
@@ -2625,7 +2647,7 @@
         <v>2.349999999999997</v>
       </c>
       <c r="K47" t="n">
-        <v>-17.11711711711714</v>
+        <v>-55.00000000000026</v>
       </c>
       <c r="L47" t="n">
         <v>6.135999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>2.349999999999997</v>
       </c>
       <c r="K48" t="n">
-        <v>-16.3636363636364</v>
+        <v>-30.76923076923103</v>
       </c>
       <c r="L48" t="n">
         <v>6.113999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>2.449999999999997</v>
       </c>
       <c r="K49" t="n">
-        <v>-5.882352941176515</v>
+        <v>2.857142857142814</v>
       </c>
       <c r="L49" t="n">
         <v>6.115999999999998</v>
@@ -2778,7 +2800,7 @@
         <v>2.459999999999996</v>
       </c>
       <c r="K50" t="n">
-        <v>-5.882352941176515</v>
+        <v>2.857142857142814</v>
       </c>
       <c r="L50" t="n">
         <v>6.115999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>2.479999999999997</v>
       </c>
       <c r="K51" t="n">
-        <v>-9.243697478991649</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L51" t="n">
         <v>6.114999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>2.519999999999997</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.243697478991649</v>
+        <v>-3.225806451613125</v>
       </c>
       <c r="L52" t="n">
         <v>6.110999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>2.649999999999997</v>
       </c>
       <c r="K53" t="n">
-        <v>-18.18181818181824</v>
+        <v>-34.88372093023266</v>
       </c>
       <c r="L53" t="n">
         <v>6.097</v>
@@ -2982,7 +3004,7 @@
         <v>2.739999999999997</v>
       </c>
       <c r="K54" t="n">
-        <v>0.7999999999999853</v>
+        <v>-9.803921568627594</v>
       </c>
       <c r="L54" t="n">
         <v>6.090999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>2.789999999999997</v>
       </c>
       <c r="K55" t="n">
-        <v>-10.71428571428567</v>
+        <v>9.803921568627594</v>
       </c>
       <c r="L55" t="n">
         <v>6.091</v>
@@ -3084,7 +3106,7 @@
         <v>2.789999999999997</v>
       </c>
       <c r="K56" t="n">
-        <v>-8.256880733944955</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L56" t="n">
         <v>6.096</v>
@@ -3135,7 +3157,7 @@
         <v>2.829999999999997</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.990099009900971</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L57" t="n">
         <v>6.104000000000001</v>
@@ -3186,7 +3208,7 @@
         <v>2.859999999999997</v>
       </c>
       <c r="K58" t="n">
-        <v>-12.08791208791216</v>
+        <v>2.43902439024385</v>
       </c>
       <c r="L58" t="n">
         <v>6.115</v>
@@ -3237,7 +3259,7 @@
         <v>2.889999999999996</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>-2.325581395348789</v>
       </c>
       <c r="L59" t="n">
         <v>6.113</v>
@@ -3288,7 +3310,7 @@
         <v>2.989999999999997</v>
       </c>
       <c r="K60" t="n">
-        <v>-12.35955056179782</v>
+        <v>-17.64705882352939</v>
       </c>
       <c r="L60" t="n">
         <v>6.102</v>
@@ -3339,7 +3361,7 @@
         <v>2.999999999999996</v>
       </c>
       <c r="K61" t="n">
-        <v>-10.11235955056191</v>
+        <v>-25.00000000000004</v>
       </c>
       <c r="L61" t="n">
         <v>6.094</v>
@@ -3390,7 +3412,7 @@
         <v>3.029999999999996</v>
       </c>
       <c r="K62" t="n">
-        <v>-22.35294117647059</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L62" t="n">
         <v>6.079000000000001</v>
@@ -3441,7 +3463,7 @@
         <v>3.149999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>-4.255319148936181</v>
+        <v>2.439024390244072</v>
       </c>
       <c r="L63" t="n">
         <v>6.089</v>
@@ -3492,7 +3514,7 @@
         <v>3.269999999999996</v>
       </c>
       <c r="K64" t="n">
-        <v>-16.1904761904762</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L64" t="n">
         <v>6.078000000000001</v>
@@ -3543,7 +3565,7 @@
         <v>3.329999999999996</v>
       </c>
       <c r="K65" t="n">
-        <v>-9.09090909090915</v>
+        <v>-18.51851851851868</v>
       </c>
       <c r="L65" t="n">
         <v>6.068000000000001</v>
@@ -3594,7 +3616,7 @@
         <v>3.439999999999996</v>
       </c>
       <c r="K66" t="n">
-        <v>5.172413793103498</v>
+        <v>8.1967213114754</v>
       </c>
       <c r="L66" t="n">
         <v>6.069000000000002</v>
@@ -3645,7 +3667,7 @@
         <v>3.599999999999996</v>
       </c>
       <c r="K67" t="n">
-        <v>-2.400000000000022</v>
+        <v>-18.91891891891889</v>
       </c>
       <c r="L67" t="n">
         <v>6.058000000000002</v>
@@ -3696,7 +3718,7 @@
         <v>3.599999999999996</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.400000000000022</v>
+        <v>-15.49295774647892</v>
       </c>
       <c r="L68" t="n">
         <v>6.044000000000002</v>
@@ -3747,7 +3769,7 @@
         <v>3.659999999999996</v>
       </c>
       <c r="K69" t="n">
-        <v>-5.785123966942177</v>
+        <v>7.462686567164163</v>
       </c>
       <c r="L69" t="n">
         <v>6.039000000000003</v>
@@ -3798,7 +3820,7 @@
         <v>3.689999999999996</v>
       </c>
       <c r="K70" t="n">
-        <v>-2.439024390243924</v>
+        <v>10.14492753623193</v>
       </c>
       <c r="L70" t="n">
         <v>6.047000000000003</v>
@@ -3849,7 +3871,7 @@
         <v>3.709999999999996</v>
       </c>
       <c r="K71" t="n">
-        <v>-2.439024390243853</v>
+        <v>11.76470588235296</v>
       </c>
       <c r="L71" t="n">
         <v>6.052000000000004</v>
@@ -3900,7 +3922,7 @@
         <v>3.709999999999996</v>
       </c>
       <c r="K72" t="n">
-        <v>-5.882352941176427</v>
+        <v>-7.142857142857154</v>
       </c>
       <c r="L72" t="n">
         <v>6.060000000000003</v>
@@ -3951,7 +3973,7 @@
         <v>3.709999999999996</v>
       </c>
       <c r="K73" t="n">
-        <v>5.66037735849062</v>
+        <v>18.18181818181822</v>
       </c>
       <c r="L73" t="n">
         <v>6.056000000000003</v>
@@ -4002,7 +4024,7 @@
         <v>3.719999999999996</v>
       </c>
       <c r="K74" t="n">
-        <v>-4.08163265306123</v>
+        <v>2.564102564102506</v>
       </c>
       <c r="L74" t="n">
         <v>6.063000000000003</v>
@@ -4053,7 +4075,7 @@
         <v>3.729999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>-8.510638297872353</v>
+        <v>-31.03448275862054</v>
       </c>
       <c r="L75" t="n">
         <v>6.065000000000003</v>
@@ -4104,7 +4126,7 @@
         <v>3.749999999999996</v>
       </c>
       <c r="K76" t="n">
-        <v>-6.250000000000059</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L76" t="n">
         <v>6.058000000000004</v>
@@ -4155,7 +4177,7 @@
         <v>3.749999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>-2.173913043478313</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L77" t="n">
         <v>6.067000000000005</v>
@@ -4206,7 +4228,7 @@
         <v>3.749999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>-5.617977528089869</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>6.076000000000005</v>
@@ -4257,7 +4279,7 @@
         <v>3.749999999999996</v>
       </c>
       <c r="K79" t="n">
-        <v>-2.32558139534889</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>6.079000000000005</v>
@@ -4308,7 +4330,7 @@
         <v>3.749999999999996</v>
       </c>
       <c r="K80" t="n">
-        <v>10.5263157894737</v>
+        <v>49.99999999999778</v>
       </c>
       <c r="L80" t="n">
         <v>6.079000000000005</v>
@@ -4359,7 +4381,7 @@
         <v>3.749999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>9.333333333333371</v>
+        <v>49.99999999999778</v>
       </c>
       <c r="L81" t="n">
         <v>6.081000000000005</v>
@@ -4410,7 +4432,7 @@
         <v>3.769999999999997</v>
       </c>
       <c r="K82" t="n">
-        <v>16.21621621621621</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L82" t="n">
         <v>6.085000000000006</v>
@@ -4461,7 +4483,7 @@
         <v>3.779999999999998</v>
       </c>
       <c r="K83" t="n">
-        <v>-1.58730158730169</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L83" t="n">
         <v>6.088000000000006</v>
@@ -4512,7 +4534,7 @@
         <v>3.789999999999998</v>
       </c>
       <c r="K84" t="n">
-        <v>23.076923076923</v>
+        <v>66.66666666666518</v>
       </c>
       <c r="L84" t="n">
         <v>6.093000000000006</v>
@@ -4563,7 +4585,7 @@
         <v>3.789999999999998</v>
       </c>
       <c r="K85" t="n">
-        <v>13.0434782608696</v>
+        <v>49.99999999999889</v>
       </c>
       <c r="L85" t="n">
         <v>6.097000000000007</v>
@@ -4614,7 +4636,7 @@
         <v>3.799999999999998</v>
       </c>
       <c r="K86" t="n">
-        <v>-11.11111111111106</v>
+        <v>59.99999999999858</v>
       </c>
       <c r="L86" t="n">
         <v>6.100000000000006</v>
@@ -4665,7 +4687,7 @@
         <v>3.839999999999998</v>
       </c>
       <c r="K87" t="n">
-        <v>66.66666666666617</v>
+        <v>77.77777777777668</v>
       </c>
       <c r="L87" t="n">
         <v>6.107000000000005</v>
@@ -4716,7 +4738,7 @@
         <v>3.879999999999998</v>
       </c>
       <c r="K88" t="n">
-        <v>71.42857142857098</v>
+        <v>84.61538461538377</v>
       </c>
       <c r="L88" t="n">
         <v>6.118000000000005</v>
@@ -4767,7 +4789,7 @@
         <v>3.889999999999998</v>
       </c>
       <c r="K89" t="n">
-        <v>56.52173913043458</v>
+        <v>71.42857142857106</v>
       </c>
       <c r="L89" t="n">
         <v>6.128000000000005</v>
@@ -4818,7 +4840,7 @@
         <v>3.889999999999998</v>
       </c>
       <c r="K90" t="n">
-        <v>49.99999999999978</v>
+        <v>71.42857142857106</v>
       </c>
       <c r="L90" t="n">
         <v>6.138000000000003</v>
@@ -4869,7 +4891,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K91" t="n">
-        <v>57.89473684210403</v>
+        <v>53.84615384615269</v>
       </c>
       <c r="L91" t="n">
         <v>6.147000000000003</v>
@@ -4920,7 +4942,7 @@
         <v>3.919999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>61.90476190476082</v>
+        <v>71.42857142857106</v>
       </c>
       <c r="L92" t="n">
         <v>6.156000000000003</v>
@@ -4971,7 +4993,7 @@
         <v>4.009999999999999</v>
       </c>
       <c r="K93" t="n">
-        <v>13.33333333333319</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>6.157000000000003</v>
@@ -5022,7 +5044,7 @@
         <v>4.099999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>36.8421052631578</v>
+        <v>29.03225806451604</v>
       </c>
       <c r="L94" t="n">
         <v>6.166000000000002</v>
@@ -5073,7 +5095,7 @@
         <v>4.189999999999999</v>
       </c>
       <c r="K95" t="n">
-        <v>8.695652173913018</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L95" t="n">
         <v>6.166000000000002</v>
@@ -5124,7 +5146,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K96" t="n">
-        <v>2.222222222222161</v>
+        <v>-16.66666666666675</v>
       </c>
       <c r="L96" t="n">
         <v>6.164000000000002</v>
@@ -5175,7 +5197,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K97" t="n">
-        <v>2.222222222222161</v>
+        <v>-31.25000000000005</v>
       </c>
       <c r="L97" t="n">
         <v>6.158000000000003</v>
@@ -5226,7 +5248,7 @@
         <v>4.21</v>
       </c>
       <c r="K98" t="n">
-        <v>4.347826086956589</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L98" t="n">
         <v>6.149000000000003</v>
@@ -5277,7 +5299,7 @@
         <v>4.21</v>
       </c>
       <c r="K99" t="n">
-        <v>4.347826086956589</v>
+        <v>-24.99999999999986</v>
       </c>
       <c r="L99" t="n">
         <v>6.141000000000003</v>
@@ -5328,7 +5350,7 @@
         <v>4.31</v>
       </c>
       <c r="K100" t="n">
-        <v>-14.2857142857142</v>
+        <v>-41.46341463414613</v>
       </c>
       <c r="L100" t="n">
         <v>6.123000000000003</v>
@@ -5379,7 +5401,7 @@
         <v>4.31</v>
       </c>
       <c r="K101" t="n">
-        <v>-14.2857142857142</v>
+        <v>-48.71794871794863</v>
       </c>
       <c r="L101" t="n">
         <v>6.106000000000003</v>
@@ -5430,7 +5452,7 @@
         <v>4.390000000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>-3.225806451612959</v>
+        <v>-5.26315789473694</v>
       </c>
       <c r="L102" t="n">
         <v>6.095000000000003</v>
@@ -5481,7 +5503,7 @@
         <v>4.390000000000001</v>
       </c>
       <c r="K103" t="n">
-        <v>-1.639344262295039</v>
+        <v>-37.9310344827585</v>
       </c>
       <c r="L103" t="n">
         <v>6.093000000000004</v>
@@ -5532,7 +5554,7 @@
         <v>4.4</v>
       </c>
       <c r="K104" t="n">
-        <v>-1.639344262295187</v>
+        <v>-4.761904761905044</v>
       </c>
       <c r="L104" t="n">
         <v>6.083000000000003</v>
@@ -5583,7 +5605,7 @@
         <v>4.470000000000001</v>
       </c>
       <c r="K105" t="n">
-        <v>8.823529411764618</v>
+        <v>25.9259259259259</v>
       </c>
       <c r="L105" t="n">
         <v>6.089000000000003</v>
@@ -5634,7 +5656,7 @@
         <v>4.49</v>
       </c>
       <c r="K106" t="n">
-        <v>4.347826086956544</v>
+        <v>17.24137931034502</v>
       </c>
       <c r="L106" t="n">
         <v>6.094000000000003</v>
@@ -5685,7 +5707,7 @@
         <v>4.49</v>
       </c>
       <c r="K107" t="n">
-        <v>-1.538461538461501</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L107" t="n">
         <v>6.099000000000003</v>
@@ -5736,7 +5758,7 @@
         <v>4.52</v>
       </c>
       <c r="K108" t="n">
-        <v>-12.49999999999996</v>
+        <v>3.22580645161283</v>
       </c>
       <c r="L108" t="n">
         <v>6.100000000000003</v>
@@ -5787,7 +5809,7 @@
         <v>4.550000000000001</v>
       </c>
       <c r="K109" t="n">
-        <v>-6.06060606060604</v>
+        <v>58.33333333333351</v>
       </c>
       <c r="L109" t="n">
         <v>6.104000000000004</v>
@@ -5838,7 +5860,7 @@
         <v>4.700000000000001</v>
       </c>
       <c r="K110" t="n">
-        <v>-23.45679012345675</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L110" t="n">
         <v>6.103000000000003</v>
@@ -5889,7 +5911,7 @@
         <v>4.700000000000001</v>
       </c>
       <c r="K111" t="n">
-        <v>-22.49999999999989</v>
+        <v>-29.03225806451604</v>
       </c>
       <c r="L111" t="n">
         <v>6.102000000000003</v>
@@ -5940,7 +5962,7 @@
         <v>4.820000000000001</v>
       </c>
       <c r="K112" t="n">
-        <v>-8.888888888888875</v>
+        <v>6.97674418604656</v>
       </c>
       <c r="L112" t="n">
         <v>6.105000000000002</v>
@@ -5991,7 +6013,7 @@
         <v>4.820000000000001</v>
       </c>
       <c r="K113" t="n">
-        <v>1.234567901234538</v>
+        <v>4.761904761904863</v>
       </c>
       <c r="L113" t="n">
         <v>6.108000000000002</v>
@@ -6042,7 +6064,7 @@
         <v>4.850000000000001</v>
       </c>
       <c r="K114" t="n">
-        <v>-14.66666666666666</v>
+        <v>-21.05263157894735</v>
       </c>
       <c r="L114" t="n">
         <v>6.107000000000003</v>
@@ -6093,7 +6115,7 @@
         <v>4.860000000000001</v>
       </c>
       <c r="K115" t="n">
-        <v>-1.492537313432931</v>
+        <v>-13.51351351351367</v>
       </c>
       <c r="L115" t="n">
         <v>6.100000000000003</v>
@@ -6144,7 +6166,7 @@
         <v>4.860000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>-13.51351351351367</v>
       </c>
       <c r="L116" t="n">
         <v>6.095000000000002</v>
@@ -6195,7 +6217,7 @@
         <v>4.860000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>-5.882352941176594</v>
       </c>
       <c r="L117" t="n">
         <v>6.090000000000003</v>
@@ -6246,7 +6268,7 @@
         <v>4.870000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>-3.030303030303096</v>
+        <v>-18.75000000000014</v>
       </c>
       <c r="L118" t="n">
         <v>6.087000000000002</v>
@@ -6297,7 +6319,7 @@
         <v>4.880000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>-4.477611940298539</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L119" t="n">
         <v>6.080000000000004</v>
@@ -6348,7 +6370,7 @@
         <v>4.890000000000001</v>
       </c>
       <c r="K120" t="n">
-        <v>13.79310344827587</v>
+        <v>47.36842105263162</v>
       </c>
       <c r="L120" t="n">
         <v>6.089000000000003</v>
@@ -6399,7 +6421,7 @@
         <v>4.890000000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>13.79310344827587</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L121" t="n">
         <v>6.098000000000003</v>
@@ -6450,7 +6472,7 @@
         <v>4.9</v>
       </c>
       <c r="K122" t="n">
-        <v>1.960784313725449</v>
+        <v>-25.00000000000083</v>
       </c>
       <c r="L122" t="n">
         <v>6.096000000000003</v>
@@ -6501,7 +6523,7 @@
         <v>4.9</v>
       </c>
       <c r="K123" t="n">
-        <v>1.960784313725449</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
         <v>6.094000000000003</v>
@@ -6603,7 +6625,7 @@
         <v>4.910000000000001</v>
       </c>
       <c r="K125" t="n">
-        <v>-13.63636363636354</v>
+        <v>20.00000000000142</v>
       </c>
       <c r="L125" t="n">
         <v>6.096000000000003</v>
@@ -6654,7 +6676,7 @@
         <v>4.920000000000001</v>
       </c>
       <c r="K126" t="n">
-        <v>-6.97674418604656</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L126" t="n">
         <v>6.098000000000003</v>
@@ -6705,7 +6727,7 @@
         <v>4.920000000000001</v>
       </c>
       <c r="K127" t="n">
-        <v>-6.97674418604656</v>
+        <v>60.00000000000071</v>
       </c>
       <c r="L127" t="n">
         <v>6.100000000000002</v>
@@ -6756,7 +6778,7 @@
         <v>5.000000000000001</v>
       </c>
       <c r="K128" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L128" t="n">
         <v>6.111000000000002</v>
@@ -6807,7 +6829,7 @@
         <v>5.000000000000001</v>
       </c>
       <c r="K129" t="n">
-        <v>11.11111111111107</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
         <v>6.123000000000002</v>
@@ -6858,7 +6880,7 @@
         <v>5.000000000000001</v>
       </c>
       <c r="K130" t="n">
-        <v>66.66666666666676</v>
+        <v>100</v>
       </c>
       <c r="L130" t="n">
         <v>6.134000000000002</v>
@@ -6909,7 +6931,7 @@
         <v>5.030000000000001</v>
       </c>
       <c r="K131" t="n">
-        <v>69.69696969696982</v>
+        <v>100</v>
       </c>
       <c r="L131" t="n">
         <v>6.148000000000001</v>
@@ -6960,7 +6982,7 @@
         <v>5.030000000000001</v>
       </c>
       <c r="K132" t="n">
-        <v>52.38095238095254</v>
+        <v>100</v>
       </c>
       <c r="L132" t="n">
         <v>6.161000000000002</v>
@@ -7011,7 +7033,7 @@
         <v>5.050000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>39.13043478260856</v>
+        <v>73.33333333333294</v>
       </c>
       <c r="L133" t="n">
         <v>6.172000000000002</v>
@@ -7062,7 +7084,7 @@
         <v>5.060000000000001</v>
       </c>
       <c r="K134" t="n">
-        <v>52.38095238095254</v>
+        <v>59.99999999999977</v>
       </c>
       <c r="L134" t="n">
         <v>6.182000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>5.090000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>56.52173913043502</v>
+        <v>64.70588235294106</v>
       </c>
       <c r="L135" t="n">
         <v>6.194000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>5.100000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>49.99999999999982</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L136" t="n">
         <v>6.204000000000002</v>
@@ -7215,7 +7237,7 @@
         <v>5.100000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>49.99999999999982</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L137" t="n">
         <v>6.214000000000002</v>
@@ -7266,7 +7288,7 @@
         <v>5.180000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>16.12903225806439</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>6.208000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>5.260000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>36.84210526315765</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L139" t="n">
         <v>6.210000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>5.270000000000003</v>
       </c>
       <c r="K140" t="n">
-        <v>36.8421052631578</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>6.213000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>5.340000000000003</v>
       </c>
       <c r="K141" t="n">
-        <v>15.55555555555552</v>
+        <v>-22.58064516129025</v>
       </c>
       <c r="L141" t="n">
         <v>6.206</v>
@@ -7470,7 +7492,7 @@
         <v>5.410000000000004</v>
       </c>
       <c r="K142" t="n">
-        <v>25.49019607843136</v>
+        <v>5.555555555555651</v>
       </c>
       <c r="L142" t="n">
         <v>6.206</v>
@@ -7521,7 +7543,7 @@
         <v>5.460000000000004</v>
       </c>
       <c r="K143" t="n">
-        <v>32.14285714285707</v>
+        <v>19.99999999999991</v>
       </c>
       <c r="L143" t="n">
         <v>6.213</v>
@@ -7572,7 +7594,7 @@
         <v>5.510000000000003</v>
       </c>
       <c r="K144" t="n">
-        <v>21.31147540983609</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>6.215999999999999</v>
@@ -7623,7 +7645,7 @@
         <v>5.620000000000003</v>
       </c>
       <c r="K145" t="n">
-        <v>32.39436619718295</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L145" t="n">
         <v>6.226999999999999</v>
@@ -7674,7 +7696,7 @@
         <v>5.750000000000003</v>
       </c>
       <c r="K146" t="n">
-        <v>42.16867469879504</v>
+        <v>38.46153846153844</v>
       </c>
       <c r="L146" t="n">
         <v>6.252</v>
@@ -7725,7 +7747,7 @@
         <v>5.750000000000003</v>
       </c>
       <c r="K147" t="n">
-        <v>42.16867469879504</v>
+        <v>57.89473684210525</v>
       </c>
       <c r="L147" t="n">
         <v>6.276999999999999</v>
@@ -7776,7 +7798,7 @@
         <v>5.800000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>39.99999999999984</v>
+        <v>55.55555555555551</v>
       </c>
       <c r="L148" t="n">
         <v>6.315</v>
@@ -7827,7 +7849,7 @@
         <v>5.810000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>38.27160493827149</v>
+        <v>51.85185185185182</v>
       </c>
       <c r="L149" t="n">
         <v>6.343999999999999</v>
@@ -7878,7 +7900,7 @@
         <v>5.840000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>33.33333333333333</v>
+        <v>64.00000000000028</v>
       </c>
       <c r="L150" t="n">
         <v>6.369</v>
@@ -7929,7 +7951,7 @@
         <v>5.990000000000002</v>
       </c>
       <c r="K151" t="n">
-        <v>10.41666666666662</v>
+        <v>17.24137931034482</v>
       </c>
       <c r="L151" t="n">
         <v>6.386</v>
@@ -7980,7 +8002,7 @@
         <v>5.990000000000002</v>
       </c>
       <c r="K152" t="n">
-        <v>10.41666666666662</v>
+        <v>9.433962264150937</v>
       </c>
       <c r="L152" t="n">
         <v>6.395999999999999</v>
@@ -8031,7 +8053,7 @@
         <v>5.990000000000002</v>
       </c>
       <c r="K153" t="n">
-        <v>12.76595744680852</v>
+        <v>20.83333333333332</v>
       </c>
       <c r="L153" t="n">
         <v>6.400999999999999</v>
@@ -8082,7 +8104,7 @@
         <v>5.990000000000002</v>
       </c>
       <c r="K154" t="n">
-        <v>13.97849462365589</v>
+        <v>-2.702702702702651</v>
       </c>
       <c r="L154" t="n">
         <v>6.410999999999999</v>
@@ -8133,7 +8155,7 @@
         <v>6.000000000000002</v>
       </c>
       <c r="K155" t="n">
-        <v>9.890109890109873</v>
+        <v>-60</v>
       </c>
       <c r="L155" t="n">
         <v>6.408999999999997</v>
@@ -8184,7 +8206,7 @@
         <v>6.010000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>12.08791208791213</v>
+        <v>-53.84615384615395</v>
       </c>
       <c r="L156" t="n">
         <v>6.394999999999998</v>
@@ -8235,7 +8257,7 @@
         <v>6.010000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>12.08791208791213</v>
+        <v>-90.47619047619064</v>
       </c>
       <c r="L157" t="n">
         <v>6.380999999999998</v>
@@ -8286,7 +8308,7 @@
         <v>6.010000000000002</v>
       </c>
       <c r="K158" t="n">
-        <v>22.89156626506031</v>
+        <v>-90.00000000000018</v>
       </c>
       <c r="L158" t="n">
         <v>6.361999999999997</v>
@@ -8337,7 +8359,7 @@
         <v>6.030000000000002</v>
       </c>
       <c r="K159" t="n">
-        <v>11.68831168831168</v>
+        <v>-89.47368421052656</v>
       </c>
       <c r="L159" t="n">
         <v>6.341999999999998</v>
@@ -8388,7 +8410,7 @@
         <v>6.050000000000002</v>
       </c>
       <c r="K160" t="n">
-        <v>12.82051282051279</v>
+        <v>0</v>
       </c>
       <c r="L160" t="n">
         <v>6.326999999999998</v>
@@ -8439,7 +8461,7 @@
         <v>6.150000000000002</v>
       </c>
       <c r="K161" t="n">
-        <v>8.641975308642023</v>
+        <v>-62.49999999999972</v>
       </c>
       <c r="L161" t="n">
         <v>6.316999999999998</v>
@@ -8490,7 +8512,7 @@
         <v>6.240000000000002</v>
       </c>
       <c r="K162" t="n">
-        <v>10.84337349397591</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L162" t="n">
         <v>6.315999999999998</v>
@@ -8541,7 +8563,7 @@
         <v>6.240000000000002</v>
       </c>
       <c r="K163" t="n">
-        <v>5.128205128205143</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L163" t="n">
         <v>6.315</v>
@@ -8592,7 +8614,7 @@
         <v>6.240000000000002</v>
       </c>
       <c r="K164" t="n">
-        <v>12.32876712328767</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>6.314</v>
@@ -8643,7 +8665,7 @@
         <v>6.240000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>-3.225806451612839</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L165" t="n">
         <v>6.314000000000001</v>
@@ -8694,7 +8716,7 @@
         <v>6.240000000000002</v>
       </c>
       <c r="K166" t="n">
-        <v>-30.61224489795912</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L166" t="n">
         <v>6.313000000000001</v>
@@ -8745,7 +8767,7 @@
         <v>6.240000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>-30.61224489795912</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L167" t="n">
         <v>6.312000000000002</v>
@@ -8796,7 +8818,7 @@
         <v>6.260000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>-47.82608695652169</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L168" t="n">
         <v>6.309000000000002</v>
@@ -8847,7 +8869,7 @@
         <v>6.260000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>-46.66666666666664</v>
+        <v>-14.28571428571441</v>
       </c>
       <c r="L169" t="n">
         <v>6.308000000000002</v>
@@ -8898,7 +8920,7 @@
         <v>6.290000000000003</v>
       </c>
       <c r="K170" t="n">
-        <v>-46.66666666666674</v>
+        <v>28.57142857142785</v>
       </c>
       <c r="L170" t="n">
         <v>6.302000000000001</v>
@@ -8949,7 +8971,7 @@
         <v>6.330000000000003</v>
       </c>
       <c r="K171" t="n">
-        <v>-5.882352941176594</v>
+        <v>-11.11111111111177</v>
       </c>
       <c r="L171" t="n">
         <v>6.31</v>
@@ -9000,7 +9022,7 @@
         <v>6.330000000000003</v>
       </c>
       <c r="K172" t="n">
-        <v>-5.882352941176594</v>
+        <v>-11.11111111111177</v>
       </c>
       <c r="L172" t="n">
         <v>6.309000000000001</v>
@@ -9051,7 +9073,7 @@
         <v>6.440000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>-28.88888888888885</v>
+        <v>-60</v>
       </c>
       <c r="L173" t="n">
         <v>6.297000000000001</v>
@@ -9102,7 +9124,7 @@
         <v>6.540000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>-5.454545454545501</v>
+        <v>-6.666666666666825</v>
       </c>
       <c r="L174" t="n">
         <v>6.295000000000001</v>
@@ -9153,7 +9175,7 @@
         <v>6.640000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>-18.75000000000002</v>
+        <v>-30.00000000000006</v>
       </c>
       <c r="L175" t="n">
         <v>6.283</v>
@@ -9204,7 +9226,7 @@
         <v>6.720000000000002</v>
       </c>
       <c r="K176" t="n">
-        <v>-7.042253521126736</v>
+        <v>-8.333333333333348</v>
       </c>
       <c r="L176" t="n">
         <v>6.279</v>
@@ -9255,7 +9277,7 @@
         <v>6.840000000000002</v>
       </c>
       <c r="K177" t="n">
-        <v>-20.48192771084337</v>
+        <v>-24.13793103448274</v>
       </c>
       <c r="L177" t="n">
         <v>6.263</v>
@@ -9306,7 +9328,7 @@
         <v>6.960000000000002</v>
       </c>
       <c r="K178" t="n">
-        <v>-5.263157894736822</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L178" t="n">
         <v>6.261</v>
@@ -9357,7 +9379,7 @@
         <v>7.100000000000002</v>
       </c>
       <c r="K179" t="n">
-        <v>-15.88785046728971</v>
+        <v>-16.04938271604938</v>
       </c>
       <c r="L179" t="n">
         <v>6.245</v>
@@ -9408,7 +9430,7 @@
         <v>7.240000000000003</v>
       </c>
       <c r="K180" t="n">
-        <v>-4.201680672268891</v>
+        <v>-3.296703296703226</v>
       </c>
       <c r="L180" t="n">
         <v>6.246</v>
@@ -9459,7 +9481,7 @@
         <v>7.260000000000003</v>
       </c>
       <c r="K181" t="n">
-        <v>2.702702702702642</v>
+        <v>-5.376344086021483</v>
       </c>
       <c r="L181" t="n">
         <v>6.241000000000001</v>
@@ -9510,7 +9532,7 @@
         <v>7.280000000000003</v>
       </c>
       <c r="K182" t="n">
-        <v>-7.692307692307693</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L182" t="n">
         <v>6.234</v>
@@ -9561,7 +9583,7 @@
         <v>7.280000000000003</v>
       </c>
       <c r="K183" t="n">
-        <v>-7.692307692307693</v>
+        <v>-8.108108108108043</v>
       </c>
       <c r="L183" t="n">
         <v>6.238</v>
@@ -9612,7 +9634,7 @@
         <v>7.410000000000003</v>
       </c>
       <c r="K184" t="n">
-        <v>-17.94871794871793</v>
+        <v>-11.68831168831165</v>
       </c>
       <c r="L184" t="n">
         <v>6.218999999999999</v>
@@ -9663,7 +9685,7 @@
         <v>7.440000000000003</v>
       </c>
       <c r="K185" t="n">
-        <v>-20</v>
+        <v>-27.77777777777775</v>
       </c>
       <c r="L185" t="n">
         <v>6.206999999999999</v>
@@ -9714,7 +9736,7 @@
         <v>7.440000000000003</v>
       </c>
       <c r="K186" t="n">
-        <v>-20</v>
+        <v>-13.33333333333331</v>
       </c>
       <c r="L186" t="n">
         <v>6.186999999999999</v>
@@ -9765,7 +9787,7 @@
         <v>7.590000000000003</v>
       </c>
       <c r="K187" t="n">
-        <v>-6.666666666666648</v>
+        <v>-7.936507936507888</v>
       </c>
       <c r="L187" t="n">
         <v>6.194</v>
@@ -9816,7 +9838,7 @@
         <v>7.590000000000003</v>
       </c>
       <c r="K188" t="n">
-        <v>-5.263157894736794</v>
+        <v>18.36734693877562</v>
       </c>
       <c r="L188" t="n">
         <v>6.189</v>
@@ -9867,7 +9889,7 @@
         <v>7.730000000000004</v>
       </c>
       <c r="K189" t="n">
-        <v>-14.28571428571427</v>
+        <v>-38.77551020408163</v>
       </c>
       <c r="L189" t="n">
         <v>6.184</v>
@@ -9918,7 +9940,7 @@
         <v>7.860000000000004</v>
       </c>
       <c r="K190" t="n">
-        <v>-3.184713375796164</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L190" t="n">
         <v>6.178</v>
@@ -9969,7 +9991,7 @@
         <v>7.990000000000004</v>
       </c>
       <c r="K191" t="n">
-        <v>-13.25301204819275</v>
+        <v>-21.12676056338031</v>
       </c>
       <c r="L191" t="n">
         <v>6.161</v>
@@ -10020,7 +10042,7 @@
         <v>8.070000000000004</v>
       </c>
       <c r="K192" t="n">
-        <v>-8.045977011494228</v>
+        <v>-8.860759493670912</v>
       </c>
       <c r="L192" t="n">
         <v>6.154</v>
@@ -10071,7 +10093,7 @@
         <v>8.140000000000004</v>
       </c>
       <c r="K193" t="n">
-        <v>-5.882352941176496</v>
+        <v>-1.36986301369872</v>
       </c>
       <c r="L193" t="n">
         <v>6.14</v>
@@ -10122,7 +10144,7 @@
         <v>8.190000000000005</v>
       </c>
       <c r="K194" t="n">
-        <v>-9.090909090909042</v>
+        <v>9.33333333333335</v>
       </c>
       <c r="L194" t="n">
         <v>6.144</v>
@@ -10173,7 +10195,7 @@
         <v>8.210000000000004</v>
       </c>
       <c r="K195" t="n">
-        <v>-4.458598726114659</v>
+        <v>6.49350649350646</v>
       </c>
       <c r="L195" t="n">
         <v>6.148999999999999</v>
@@ -10224,7 +10246,7 @@
         <v>8.520000000000003</v>
       </c>
       <c r="K196" t="n">
-        <v>-25.55555555555553</v>
+        <v>-44.08602150537637</v>
       </c>
       <c r="L196" t="n">
         <v>6.123</v>
@@ -10275,7 +10297,7 @@
         <v>8.830000000000002</v>
       </c>
       <c r="K197" t="n">
-        <v>-1.507537688442223</v>
+        <v>-8.064516129032311</v>
       </c>
       <c r="L197" t="n">
         <v>6.113</v>
@@ -10326,7 +10348,7 @@
         <v>8.870000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>-9.947643979057617</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>6.098999999999999</v>
@@ -10377,7 +10399,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>-3.910614525139635</v>
+        <v>-14.5631067961165</v>
       </c>
       <c r="L199" t="n">
         <v>6.097</v>
@@ -10428,7 +10450,7 @@
         <v>8.91</v>
       </c>
       <c r="K200" t="n">
-        <v>-13.77245508982041</v>
+        <v>-4.347826086956543</v>
       </c>
       <c r="L200" t="n">
         <v>6.08</v>
@@ -10479,7 +10501,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="K201" t="n">
-        <v>-14.79289940828406</v>
+        <v>-18.18181818181829</v>
       </c>
       <c r="L201" t="n">
         <v>6.072</v>
@@ -10530,7 +10552,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="K202" t="n">
-        <v>-21.31147540983614</v>
+        <v>-25.77319587628878</v>
       </c>
       <c r="L202" t="n">
         <v>6.039999999999999</v>
@@ -10581,7 +10603,7 @@
         <v>9.279999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>-11.00000000000005</v>
+        <v>-11.92660550458729</v>
       </c>
       <c r="L203" t="n">
         <v>6.031999999999998</v>
@@ -10632,7 +10654,7 @@
         <v>9.299999999999999</v>
       </c>
       <c r="K204" t="n">
-        <v>-5.820105820105849</v>
+        <v>-11.92660550458721</v>
       </c>
       <c r="L204" t="n">
         <v>6.016999999999999</v>
@@ -10683,7 +10705,7 @@
         <v>9.299999999999999</v>
       </c>
       <c r="K205" t="n">
-        <v>-4.301075268817218</v>
+        <v>23.07692307692317</v>
       </c>
       <c r="L205" t="n">
         <v>6.003999999999999</v>
@@ -10734,7 +10756,7 @@
         <v>9.41</v>
       </c>
       <c r="K206" t="n">
-        <v>-9.644670050761455</v>
+        <v>-41.37931034482774</v>
       </c>
       <c r="L206" t="n">
         <v>6.010999999999997</v>
@@ -10785,7 +10807,7 @@
         <v>9.42</v>
       </c>
       <c r="K207" t="n">
-        <v>-19.12568306010936</v>
+        <v>-38.18181818181825</v>
       </c>
       <c r="L207" t="n">
         <v>5.985999999999998</v>
@@ -10836,7 +10858,7 @@
         <v>9.44</v>
       </c>
       <c r="K208" t="n">
-        <v>-20.00000000000005</v>
+        <v>-38.18181818181825</v>
       </c>
       <c r="L208" t="n">
         <v>5.962999999999998</v>
@@ -10887,7 +10909,7 @@
         <v>9.449999999999999</v>
       </c>
       <c r="K209" t="n">
-        <v>-12.79069767441862</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>5.942999999999999</v>
@@ -10938,7 +10960,7 @@
         <v>9.5</v>
       </c>
       <c r="K210" t="n">
-        <v>-24.39024390243905</v>
+        <v>-34.54545454545441</v>
       </c>
       <c r="L210" t="n">
         <v>5.919999999999999</v>
@@ -10989,7 +11011,7 @@
         <v>9.5</v>
       </c>
       <c r="K211" t="n">
-        <v>-17.88079470198677</v>
+        <v>-7.692307692307517</v>
       </c>
       <c r="L211" t="n">
         <v>5.900999999999998</v>
@@ -11040,7 +11062,7 @@
         <v>9.51</v>
       </c>
       <c r="K212" t="n">
-        <v>-23.61111111111117</v>
+        <v>-82.60869565217355</v>
       </c>
       <c r="L212" t="n">
         <v>5.898999999999999</v>
@@ -11091,7 +11113,7 @@
         <v>9.649999999999999</v>
       </c>
       <c r="K213" t="n">
-        <v>-8.609271523178833</v>
+        <v>-8.571428571428651</v>
       </c>
       <c r="L213" t="n">
         <v>5.894</v>
@@ -11142,7 +11164,7 @@
         <v>9.649999999999999</v>
       </c>
       <c r="K214" t="n">
-        <v>-12.32876712328776</v>
+        <v>-8.571428571428651</v>
       </c>
       <c r="L214" t="n">
         <v>5.891</v>
@@ -11193,7 +11215,7 @@
         <v>9.759999999999998</v>
       </c>
       <c r="K215" t="n">
-        <v>-17.41935483870972</v>
+        <v>-8.571428571428442</v>
       </c>
       <c r="L215" t="n">
         <v>5.877</v>
@@ -11244,7 +11266,7 @@
         <v>9.77</v>
       </c>
       <c r="K216" t="n">
-        <v>2.399999999999956</v>
+        <v>-8.571428571428651</v>
       </c>
       <c r="L216" t="n">
         <v>5.872999999999999</v>
@@ -11295,7 +11317,7 @@
         <v>9.77</v>
       </c>
       <c r="K217" t="n">
-        <v>-29.78723404255329</v>
+        <v>-3.030303030303234</v>
       </c>
       <c r="L217" t="n">
         <v>5.869999999999998</v>
@@ -11346,7 +11368,7 @@
         <v>9.870000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>-13.99999999999997</v>
+        <v>19.04761904761899</v>
       </c>
       <c r="L218" t="n">
         <v>5.878999999999998</v>
@@ -11397,7 +11419,7 @@
         <v>9.970000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>-20.3703703703704</v>
+        <v>6.382978723404086</v>
       </c>
       <c r="L219" t="n">
         <v>5.876999999999997</v>
@@ -11448,7 +11470,7 @@
         <v>10.02</v>
       </c>
       <c r="K220" t="n">
-        <v>-13.51351351351343</v>
+        <v>15.38461538461531</v>
       </c>
       <c r="L220" t="n">
         <v>5.884999999999997</v>
@@ -11499,7 +11521,7 @@
         <v>10.07</v>
       </c>
       <c r="K221" t="n">
-        <v>-5.357142857142801</v>
+        <v>21.42857142857129</v>
       </c>
       <c r="L221" t="n">
         <v>5.897999999999997</v>
@@ -11550,7 +11572,7 @@
         <v>10.07</v>
       </c>
       <c r="K222" t="n">
-        <v>10.41666666666667</v>
+        <v>-4.761904761904601</v>
       </c>
       <c r="L222" t="n">
         <v>5.909999999999997</v>
@@ -11601,7 +11623,7 @@
         <v>10.11</v>
       </c>
       <c r="K223" t="n">
-        <v>-13.25301204819264</v>
+        <v>-13.04347826086936</v>
       </c>
       <c r="L223" t="n">
         <v>5.903999999999996</v>
@@ -11652,7 +11674,7 @@
         <v>10.15</v>
       </c>
       <c r="K224" t="n">
-        <v>-5.882352941176427</v>
+        <v>23.0769230769228</v>
       </c>
       <c r="L224" t="n">
         <v>5.901999999999997</v>
@@ -11703,7 +11725,7 @@
         <v>10.2</v>
       </c>
       <c r="K225" t="n">
-        <v>-11.11111111111102</v>
+        <v>11.62790697674426</v>
       </c>
       <c r="L225" t="n">
         <v>5.905999999999997</v>
@@ -11754,7 +11776,7 @@
         <v>10.2</v>
       </c>
       <c r="K226" t="n">
-        <v>1.265822784810208</v>
+        <v>11.62790697674426</v>
       </c>
       <c r="L226" t="n">
         <v>5.910999999999998</v>
@@ -11805,7 +11827,7 @@
         <v>10.26</v>
       </c>
       <c r="K227" t="n">
-        <v>9.523809523809513</v>
+        <v>2.564102564102506</v>
       </c>
       <c r="L227" t="n">
         <v>5.921999999999998</v>
@@ -11856,7 +11878,7 @@
         <v>10.27</v>
       </c>
       <c r="K228" t="n">
-        <v>13.25301204819267</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L228" t="n">
         <v>5.923999999999998</v>
@@ -11907,7 +11929,7 @@
         <v>10.27</v>
       </c>
       <c r="K229" t="n">
-        <v>12.19512195121944</v>
+        <v>27.99999999999996</v>
       </c>
       <c r="L229" t="n">
         <v>5.935999999999998</v>
@@ -11958,7 +11980,7 @@
         <v>10.28</v>
       </c>
       <c r="K230" t="n">
-        <v>20.5128205128205</v>
+        <v>14.28571428571459</v>
       </c>
       <c r="L230" t="n">
         <v>5.943999999999997</v>
@@ -12009,7 +12031,7 @@
         <v>10.28</v>
       </c>
       <c r="K231" t="n">
-        <v>20.5128205128205</v>
+        <v>14.28571428571459</v>
       </c>
       <c r="L231" t="n">
         <v>5.946999999999997</v>
@@ -12060,7 +12082,7 @@
         <v>10.3</v>
       </c>
       <c r="K232" t="n">
-        <v>21.51898734177212</v>
+        <v>47.36842105263207</v>
       </c>
       <c r="L232" t="n">
         <v>5.951999999999996</v>
@@ -12111,7 +12133,7 @@
         <v>10.3</v>
       </c>
       <c r="K233" t="n">
-        <v>4.615384615384639</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L233" t="n">
         <v>5.960999999999997</v>
@@ -12162,7 +12184,7 @@
         <v>10.3</v>
       </c>
       <c r="K234" t="n">
-        <v>4.615384615384639</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L234" t="n">
         <v>5.965999999999997</v>
@@ -12213,7 +12235,7 @@
         <v>10.32</v>
       </c>
       <c r="K235" t="n">
-        <v>28.57142857142832</v>
+        <v>100.0000000000015</v>
       </c>
       <c r="L235" t="n">
         <v>5.977999999999996</v>
@@ -12264,7 +12286,7 @@
         <v>10.33</v>
       </c>
       <c r="K236" t="n">
-        <v>28.57142857142857</v>
+        <v>71.4285714285727</v>
       </c>
       <c r="L236" t="n">
         <v>5.988999999999996</v>
@@ -12315,7 +12337,7 @@
         <v>10.37</v>
       </c>
       <c r="K237" t="n">
-        <v>33.33333333333328</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L237" t="n">
         <v>5.997999999999997</v>
@@ -12366,7 +12388,7 @@
         <v>10.41</v>
       </c>
       <c r="K238" t="n">
-        <v>11.11111111111106</v>
+        <v>28.57142857142884</v>
       </c>
       <c r="L238" t="n">
         <v>6.001999999999997</v>
@@ -12417,7 +12439,7 @@
         <v>10.45</v>
       </c>
       <c r="K239" t="n">
-        <v>41.66666666666698</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L239" t="n">
         <v>6.009999999999996</v>
@@ -12468,7 +12490,7 @@
         <v>10.45</v>
       </c>
       <c r="K240" t="n">
-        <v>34.88372093023275</v>
+        <v>41.17647058823539</v>
       </c>
       <c r="L240" t="n">
         <v>6.016999999999996</v>
@@ -12519,7 +12541,7 @@
         <v>10.47</v>
       </c>
       <c r="K241" t="n">
-        <v>20.00000000000027</v>
+        <v>17.64705882352975</v>
       </c>
       <c r="L241" t="n">
         <v>6.021999999999996</v>
@@ -12570,7 +12592,7 @@
         <v>10.51</v>
       </c>
       <c r="K242" t="n">
-        <v>27.27272727272766</v>
+        <v>33.3333333333339</v>
       </c>
       <c r="L242" t="n">
         <v>6.028999999999996</v>
@@ -12621,7 +12643,7 @@
         <v>10.55</v>
       </c>
       <c r="K243" t="n">
-        <v>27.27272727272766</v>
+        <v>12.00000000000027</v>
       </c>
       <c r="L243" t="n">
         <v>6.031999999999996</v>
@@ -12672,7 +12694,7 @@
         <v>10.58</v>
       </c>
       <c r="K244" t="n">
-        <v>25.58139534883741</v>
+        <v>15.38461538461562</v>
       </c>
       <c r="L244" t="n">
         <v>6.037999999999997</v>
@@ -12723,7 +12745,7 @@
         <v>10.59</v>
       </c>
       <c r="K245" t="n">
-        <v>43.5897435897443</v>
+        <v>23.0769230769236</v>
       </c>
       <c r="L245" t="n">
         <v>6.042999999999997</v>
@@ -12774,7 +12796,7 @@
         <v>10.59</v>
       </c>
       <c r="K246" t="n">
-        <v>43.5897435897443</v>
+        <v>9.090909090909495</v>
       </c>
       <c r="L246" t="n">
         <v>6.048999999999998</v>
@@ -12825,7 +12847,7 @@
         <v>10.6</v>
       </c>
       <c r="K247" t="n">
-        <v>35.29411764705942</v>
+        <v>36.84210526315883</v>
       </c>
       <c r="L247" t="n">
         <v>6.051999999999998</v>
@@ -12876,7 +12898,7 @@
         <v>10.6</v>
       </c>
       <c r="K248" t="n">
-        <v>33.33333333333396</v>
+        <v>20.00000000000059</v>
       </c>
       <c r="L248" t="n">
         <v>6.058999999999998</v>
@@ -12927,7 +12949,7 @@
         <v>10.6</v>
       </c>
       <c r="K249" t="n">
-        <v>33.33333333333396</v>
+        <v>20.00000000000059</v>
       </c>
       <c r="L249" t="n">
         <v>6.061999999999999</v>
@@ -12978,7 +13000,7 @@
         <v>10.6</v>
       </c>
       <c r="K250" t="n">
-        <v>31.25000000000038</v>
+        <v>38.46153846153915</v>
       </c>
       <c r="L250" t="n">
         <v>6.065</v>
@@ -13029,7 +13051,7 @@
         <v>10.6</v>
       </c>
       <c r="K251" t="n">
-        <v>31.25000000000038</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L251" t="n">
         <v>6.069999999999999</v>
@@ -13080,7 +13102,7 @@
         <v>10.6</v>
       </c>
       <c r="K252" t="n">
-        <v>26.6666666666671</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L252" t="n">
         <v>6.070999999999999</v>
@@ -13131,7 +13153,7 @@
         <v>10.64</v>
       </c>
       <c r="K253" t="n">
-        <v>11.76470588235308</v>
+        <v>-33.33333333333235</v>
       </c>
       <c r="L253" t="n">
         <v>6.071999999999998</v>
@@ -13182,7 +13204,7 @@
         <v>10.69</v>
       </c>
       <c r="K254" t="n">
-        <v>23.07692307692322</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L254" t="n">
         <v>6.074999999999998</v>
@@ -13233,7 +13255,7 @@
         <v>10.78</v>
       </c>
       <c r="K255" t="n">
-        <v>-4.347826086956454</v>
+        <v>-36.8421052631578</v>
       </c>
       <c r="L255" t="n">
         <v>6.067999999999999</v>
@@ -13284,7 +13306,7 @@
         <v>10.79</v>
       </c>
       <c r="K256" t="n">
-        <v>-4.347826086956454</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L256" t="n">
         <v>6.059999999999999</v>
@@ -13335,7 +13357,7 @@
         <v>10.79</v>
       </c>
       <c r="K257" t="n">
-        <v>-14.28571428571431</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L257" t="n">
         <v>6.050999999999999</v>
@@ -13386,7 +13408,7 @@
         <v>10.79</v>
       </c>
       <c r="K258" t="n">
-        <v>-5.263157894736768</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L258" t="n">
         <v>6.041999999999999</v>
@@ -13437,7 +13459,7 @@
         <v>10.84</v>
       </c>
       <c r="K259" t="n">
-        <v>-2.564102564102529</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L259" t="n">
         <v>6.037999999999999</v>
@@ -13488,7 +13510,7 @@
         <v>10.84</v>
       </c>
       <c r="K260" t="n">
-        <v>-2.564102564102529</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L260" t="n">
         <v>6.034000000000001</v>
@@ -13539,7 +13561,7 @@
         <v>10.84</v>
       </c>
       <c r="K261" t="n">
-        <v>2.702702702702664</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L261" t="n">
         <v>6.030000000000001</v>
@@ -13590,7 +13612,7 @@
         <v>10.84</v>
       </c>
       <c r="K262" t="n">
-        <v>-9.090909090909213</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>6.026000000000002</v>
@@ -13641,7 +13663,7 @@
         <v>10.84</v>
       </c>
       <c r="K263" t="n">
-        <v>3.448275862068902</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L263" t="n">
         <v>6.026000000000002</v>
@@ -13692,7 +13714,7 @@
         <v>10.84</v>
       </c>
       <c r="K264" t="n">
-        <v>-7.692307692307534</v>
+        <v>66.66666666666815</v>
       </c>
       <c r="L264" t="n">
         <v>6.021000000000003</v>
@@ -13743,7 +13765,7 @@
         <v>10.85</v>
       </c>
       <c r="K265" t="n">
-        <v>-7.692307692307876</v>
+        <v>100.0000000000015</v>
       </c>
       <c r="L265" t="n">
         <v>6.026000000000002</v>
@@ -13794,7 +13816,7 @@
         <v>10.85</v>
       </c>
       <c r="K266" t="n">
-        <v>-7.692307692307876</v>
+        <v>100.0000000000015</v>
       </c>
       <c r="L266" t="n">
         <v>6.032000000000002</v>
@@ -13845,7 +13867,7 @@
         <v>10.86</v>
       </c>
       <c r="K267" t="n">
-        <v>-15.38461538461541</v>
+        <v>71.4285714285727</v>
       </c>
       <c r="L267" t="n">
         <v>6.037000000000001</v>
@@ -13896,7 +13918,7 @@
         <v>10.87</v>
       </c>
       <c r="K268" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>6.041</v>
@@ -13947,7 +13969,7 @@
         <v>10.87</v>
       </c>
       <c r="K269" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>6.04</v>
@@ -13998,7 +14020,7 @@
         <v>10.87</v>
       </c>
       <c r="K270" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L270" t="n">
         <v>6.039</v>
@@ -14049,7 +14071,7 @@
         <v>10.87</v>
       </c>
       <c r="K271" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>6.037999999999998</v>
@@ -14100,7 +14122,7 @@
         <v>10.87</v>
       </c>
       <c r="K272" t="n">
-        <v>-18.51851851851848</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>6.036999999999998</v>
@@ -14151,7 +14173,7 @@
         <v>10.87</v>
       </c>
       <c r="K273" t="n">
-        <v>-4.347826086956454</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>6.035999999999998</v>
@@ -14202,7 +14224,7 @@
         <v>10.87</v>
       </c>
       <c r="K274" t="n">
-        <v>-33.3333333333335</v>
+        <v>-100</v>
       </c>
       <c r="L274" t="n">
         <v>6.034999999999997</v>
@@ -14253,7 +14275,7 @@
         <v>10.98</v>
       </c>
       <c r="K275" t="n">
-        <v>-40.00000000000018</v>
+        <v>-99.99999999999932</v>
       </c>
       <c r="L275" t="n">
         <v>6.021999999999997</v>
@@ -14304,7 +14326,7 @@
         <v>11.08</v>
       </c>
       <c r="K276" t="n">
-        <v>10.34482758620671</v>
+        <v>-9.090909090909275</v>
       </c>
       <c r="L276" t="n">
         <v>6.018999999999997</v>
@@ -14355,7 +14377,7 @@
         <v>11.08</v>
       </c>
       <c r="K277" t="n">
-        <v>10.34482758620671</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L277" t="n">
         <v>6.016999999999997</v>
@@ -14406,7 +14428,7 @@
         <v>11.08</v>
       </c>
       <c r="K278" t="n">
-        <v>10.34482758620671</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L278" t="n">
         <v>6.015999999999996</v>
@@ -14457,7 +14479,7 @@
         <v>11.08</v>
       </c>
       <c r="K279" t="n">
-        <v>-8.333333333333519</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L279" t="n">
         <v>6.014999999999996</v>
@@ -14508,7 +14530,7 @@
         <v>11.08</v>
       </c>
       <c r="K280" t="n">
-        <v>-8.333333333333519</v>
+        <v>-4.761904761905064</v>
       </c>
       <c r="L280" t="n">
         <v>6.013999999999996</v>
@@ -14559,7 +14581,7 @@
         <v>11.12</v>
       </c>
       <c r="K281" t="n">
-        <v>-21.42857142857134</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L281" t="n">
         <v>6.008999999999996</v>
@@ -14610,7 +14632,7 @@
         <v>11.12</v>
       </c>
       <c r="K282" t="n">
-        <v>-21.42857142857134</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L282" t="n">
         <v>6.003999999999996</v>
@@ -14661,7 +14683,7 @@
         <v>11.13</v>
       </c>
       <c r="K283" t="n">
-        <v>-17.24137931034482</v>
+        <v>-15.38461538461541</v>
       </c>
       <c r="L283" t="n">
         <v>5.999999999999996</v>
@@ -14712,7 +14734,7 @@
         <v>11.13</v>
       </c>
       <c r="K284" t="n">
-        <v>-17.24137931034482</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L284" t="n">
         <v>5.995999999999995</v>
@@ -14763,7 +14785,7 @@
         <v>11.13</v>
       </c>
       <c r="K285" t="n">
-        <v>-21.42857142857134</v>
+        <v>-60</v>
       </c>
       <c r="L285" t="n">
         <v>6.002999999999995</v>
@@ -14814,7 +14836,7 @@
         <v>11.14</v>
       </c>
       <c r="K286" t="n">
-        <v>-17.24137931034482</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L286" t="n">
         <v>6.000999999999995</v>
@@ -14865,7 +14887,7 @@
         <v>11.14</v>
       </c>
       <c r="K287" t="n">
-        <v>-14.28571428571433</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>5.998999999999995</v>
@@ -14916,7 +14938,7 @@
         <v>11.14</v>
       </c>
       <c r="K288" t="n">
-        <v>-11.11111111111122</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L288" t="n">
         <v>5.996999999999995</v>
@@ -14967,7 +14989,7 @@
         <v>11.14</v>
       </c>
       <c r="K289" t="n">
-        <v>-11.11111111111122</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L289" t="n">
         <v>5.994999999999996</v>
@@ -15018,7 +15040,7 @@
         <v>11.14</v>
       </c>
       <c r="K290" t="n">
-        <v>-11.11111111111122</v>
+        <v>100</v>
       </c>
       <c r="L290" t="n">
         <v>5.992999999999997</v>
@@ -15069,7 +15091,7 @@
         <v>11.16999999999999</v>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L291" t="n">
         <v>5.997999999999996</v>
@@ -15120,7 +15142,7 @@
         <v>11.16999999999999</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L292" t="n">
         <v>6.002999999999996</v>
@@ -15171,7 +15193,7 @@
         <v>11.16999999999999</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L293" t="n">
         <v>6.006999999999996</v>
@@ -15222,7 +15244,7 @@
         <v>11.18999999999999</v>
       </c>
       <c r="K294" t="n">
-        <v>6.249999999999896</v>
+        <v>100.0000000000015</v>
       </c>
       <c r="L294" t="n">
         <v>6.012999999999996</v>
@@ -15273,7 +15295,7 @@
         <v>11.18999999999999</v>
       </c>
       <c r="K295" t="n">
-        <v>61.90476190476265</v>
+        <v>100.0000000000018</v>
       </c>
       <c r="L295" t="n">
         <v>6.018999999999997</v>
@@ -15324,7 +15346,7 @@
         <v>11.25999999999999</v>
       </c>
       <c r="K296" t="n">
-        <v>-22.222222222222</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L296" t="n">
         <v>6.016999999999996</v>
@@ -15375,7 +15397,7 @@
         <v>11.25999999999999</v>
       </c>
       <c r="K297" t="n">
-        <v>-22.222222222222</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L297" t="n">
         <v>6.014999999999996</v>
@@ -15426,7 +15448,7 @@
         <v>11.32999999999999</v>
       </c>
       <c r="K298" t="n">
-        <v>12.00000000000018</v>
+        <v>26.31578947368419</v>
       </c>
       <c r="L298" t="n">
         <v>6.019999999999996</v>
@@ -15477,7 +15499,7 @@
         <v>11.33999999999999</v>
       </c>
       <c r="K299" t="n">
-        <v>7.692307692307929</v>
+        <v>20.00000000000009</v>
       </c>
       <c r="L299" t="n">
         <v>6.023999999999996</v>
@@ -15528,7 +15550,7 @@
         <v>11.33999999999999</v>
       </c>
       <c r="K300" t="n">
-        <v>7.692307692307929</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L300" t="n">
         <v>6.027999999999997</v>
@@ -15579,7 +15601,7 @@
         <v>11.34999999999999</v>
       </c>
       <c r="K301" t="n">
-        <v>30.43478260869557</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L301" t="n">
         <v>6.029999999999997</v>
@@ -15630,7 +15652,7 @@
         <v>11.47999999999999</v>
       </c>
       <c r="K302" t="n">
-        <v>-16.66666666666691</v>
+        <v>-35.48387096774218</v>
       </c>
       <c r="L302" t="n">
         <v>6.018999999999997</v>
@@ -15681,7 +15703,7 @@
         <v>11.58999999999999</v>
       </c>
       <c r="K303" t="n">
-        <v>8.695652173913103</v>
+        <v>-4.999999999999911</v>
       </c>
       <c r="L303" t="n">
         <v>6.018999999999997</v>
@@ -15732,7 +15754,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K304" t="n">
-        <v>6.382978723404134</v>
+        <v>-7.317073170731765</v>
       </c>
       <c r="L304" t="n">
         <v>6.015999999999996</v>
@@ -15783,7 +15805,7 @@
         <v>11.70999999999999</v>
       </c>
       <c r="K305" t="n">
-        <v>-13.79310344827591</v>
+        <v>-15.55555555555564</v>
       </c>
       <c r="L305" t="n">
         <v>6.001999999999997</v>
@@ -15834,7 +15856,7 @@
         <v>11.70999999999999</v>
       </c>
       <c r="K306" t="n">
-        <v>-15.78947368421054</v>
+        <v>-15.55555555555564</v>
       </c>
       <c r="L306" t="n">
         <v>5.994999999999996</v>
@@ -15885,7 +15907,7 @@
         <v>11.77999999999999</v>
       </c>
       <c r="K307" t="n">
-        <v>-3.124999999999939</v>
+        <v>-15.55555555555545</v>
       </c>
       <c r="L307" t="n">
         <v>5.994999999999996</v>
@@ -15936,7 +15958,7 @@
         <v>11.82999999999999</v>
       </c>
       <c r="K308" t="n">
-        <v>4.347826086956561</v>
+        <v>-2.040816326530568</v>
       </c>
       <c r="L308" t="n">
         <v>5.992999999999997</v>
@@ -15987,7 +16009,7 @@
         <v>12.04</v>
       </c>
       <c r="K309" t="n">
-        <v>-19.99999999999996</v>
+        <v>-31.42857142857135</v>
       </c>
       <c r="L309" t="n">
         <v>5.970999999999997</v>
@@ -16038,7 +16060,7 @@
         <v>12.22</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>-5.747126436781582</v>
       </c>
       <c r="L310" t="n">
         <v>5.966999999999998</v>
@@ -16089,7 +16111,7 @@
         <v>12.22</v>
       </c>
       <c r="K311" t="n">
-        <v>-2.857142857142879</v>
+        <v>10.81081081081079</v>
       </c>
       <c r="L311" t="n">
         <v>5.961999999999999</v>
@@ -16140,7 +16162,7 @@
         <v>12.22</v>
       </c>
       <c r="K312" t="n">
-        <v>-2.857142857142879</v>
+        <v>-4.761904761904781</v>
       </c>
       <c r="L312" t="n">
         <v>5.969999999999999</v>
@@ -16191,7 +16213,7 @@
         <v>12.23999999999999</v>
       </c>
       <c r="K313" t="n">
-        <v>-4.672897196261665</v>
+        <v>-6.249999999999861</v>
       </c>
       <c r="L313" t="n">
         <v>5.964999999999999</v>
@@ -16242,7 +16264,7 @@
         <v>12.31</v>
       </c>
       <c r="K314" t="n">
-        <v>-12.49999999999996</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>5.953999999999999</v>
@@ -16293,7 +16315,7 @@
         <v>12.36999999999999</v>
       </c>
       <c r="K315" t="n">
-        <v>-6.779661016949161</v>
+        <v>9.09090909090903</v>
       </c>
       <c r="L315" t="n">
         <v>5.959999999999999</v>
@@ -16395,7 +16417,7 @@
         <v>12.39</v>
       </c>
       <c r="K317" t="n">
-        <v>0.8849557522123699</v>
+        <v>-7.142857142857142</v>
       </c>
       <c r="L317" t="n">
         <v>5.967999999999999</v>
@@ -16446,7 +16468,7 @@
         <v>12.39</v>
       </c>
       <c r="K318" t="n">
-        <v>-5.660377358490527</v>
+        <v>48.5714285714286</v>
       </c>
       <c r="L318" t="n">
         <v>5.963999999999999</v>
@@ -16497,7 +16519,7 @@
         <v>12.39</v>
       </c>
       <c r="K319" t="n">
-        <v>-4.761904761904741</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L319" t="n">
         <v>5.980999999999998</v>
@@ -16548,7 +16570,7 @@
         <v>12.39</v>
       </c>
       <c r="K320" t="n">
-        <v>-4.761904761904741</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L320" t="n">
         <v>5.979999999999999</v>
@@ -16599,7 +16621,7 @@
         <v>12.45</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>21.73913043478249</v>
       </c>
       <c r="L321" t="n">
         <v>5.984999999999998</v>
@@ -16650,7 +16672,7 @@
         <v>12.45</v>
       </c>
       <c r="K322" t="n">
-        <v>13.40206185567006</v>
+        <v>33.33333333333291</v>
       </c>
       <c r="L322" t="n">
         <v>5.989999999999998</v>
@@ -16701,7 +16723,7 @@
         <v>12.48</v>
       </c>
       <c r="K323" t="n">
-        <v>5.617977528089842</v>
+        <v>99.99999999999896</v>
       </c>
       <c r="L323" t="n">
         <v>5.999999999999997</v>
@@ -16752,7 +16774,7 @@
         <v>12.62</v>
       </c>
       <c r="K324" t="n">
-        <v>19.60784313725486</v>
+        <v>99.99999999999858</v>
       </c>
       <c r="L324" t="n">
         <v>6.030999999999997</v>
@@ -16803,7 +16825,7 @@
         <v>12.68</v>
       </c>
       <c r="K325" t="n">
-        <v>38.14432989690707</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L325" t="n">
         <v>6.061999999999998</v>
@@ -16854,7 +16876,7 @@
         <v>12.69</v>
       </c>
       <c r="K326" t="n">
-        <v>38.77551020408146</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L326" t="n">
         <v>6.092999999999998</v>
@@ -16905,7 +16927,7 @@
         <v>12.69</v>
       </c>
       <c r="K327" t="n">
-        <v>34.06593406593388</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L327" t="n">
         <v>6.122999999999998</v>
@@ -16956,7 +16978,7 @@
         <v>12.8</v>
       </c>
       <c r="K328" t="n">
-        <v>38.14432989690713</v>
+        <v>99.99999999999957</v>
       </c>
       <c r="L328" t="n">
         <v>6.163999999999998</v>
@@ -17007,7 +17029,7 @@
         <v>12.8</v>
       </c>
       <c r="K329" t="n">
-        <v>76.31578947368406</v>
+        <v>99.99999999999957</v>
       </c>
       <c r="L329" t="n">
         <v>6.204999999999997</v>
@@ -17058,7 +17080,7 @@
         <v>12.81</v>
       </c>
       <c r="K330" t="n">
-        <v>66.1016949152538</v>
+        <v>94.44444444444362</v>
       </c>
       <c r="L330" t="n">
         <v>6.244999999999997</v>
@@ -17109,7 +17131,7 @@
         <v>12.81</v>
       </c>
       <c r="K331" t="n">
-        <v>66.1016949152538</v>
+        <v>94.44444444444362</v>
       </c>
       <c r="L331" t="n">
         <v>6.278999999999996</v>
@@ -17160,7 +17182,7 @@
         <v>12.81</v>
       </c>
       <c r="K332" t="n">
-        <v>66.1016949152538</v>
+        <v>93.93939393939328</v>
       </c>
       <c r="L332" t="n">
         <v>6.312999999999997</v>
@@ -17211,7 +17233,7 @@
         <v>12.82</v>
       </c>
       <c r="K333" t="n">
-        <v>68.96551724137878</v>
+        <v>79.99999999999964</v>
       </c>
       <c r="L333" t="n">
         <v>6.342999999999996</v>
@@ -17262,7 +17284,7 @@
         <v>12.89</v>
       </c>
       <c r="K334" t="n">
-        <v>68.96551724137878</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L334" t="n">
         <v>6.351999999999997</v>
@@ -17313,7 +17335,7 @@
         <v>12.92</v>
       </c>
       <c r="K335" t="n">
-        <v>56.36363636363602</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L335" t="n">
         <v>6.351999999999997</v>
@@ -17364,7 +17386,7 @@
         <v>13.02</v>
       </c>
       <c r="K336" t="n">
-        <v>31.24999999999969</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L336" t="n">
         <v>6.340999999999996</v>
@@ -17415,7 +17437,7 @@
         <v>13.11</v>
       </c>
       <c r="K337" t="n">
-        <v>38.88888888888857</v>
+        <v>-41.93548387096769</v>
       </c>
       <c r="L337" t="n">
         <v>6.338999999999997</v>
@@ -17466,7 +17488,7 @@
         <v>13.11</v>
       </c>
       <c r="K338" t="n">
-        <v>38.88888888888857</v>
+        <v>-41.93548387096769</v>
       </c>
       <c r="L338" t="n">
         <v>6.325999999999997</v>
@@ -17517,7 +17539,7 @@
         <v>13.26</v>
       </c>
       <c r="K339" t="n">
-        <v>14.94252873563212</v>
+        <v>-60</v>
       </c>
       <c r="L339" t="n">
         <v>6.297999999999996</v>
@@ -17568,7 +17590,7 @@
         <v>13.26</v>
       </c>
       <c r="K340" t="n">
-        <v>14.94252873563212</v>
+        <v>-60</v>
       </c>
       <c r="L340" t="n">
         <v>6.270999999999996</v>
@@ -17619,7 +17641,7 @@
         <v>13.31</v>
       </c>
       <c r="K341" t="n">
-        <v>13.95348837209299</v>
+        <v>-43.99999999999995</v>
       </c>
       <c r="L341" t="n">
         <v>6.248999999999997</v>
@@ -17670,7 +17692,7 @@
         <v>13.32</v>
       </c>
       <c r="K342" t="n">
-        <v>14.94252873563212</v>
+        <v>-40.00000000000004</v>
       </c>
       <c r="L342" t="n">
         <v>6.227999999999996</v>
@@ -17721,7 +17743,7 @@
         <v>13.39</v>
       </c>
       <c r="K343" t="n">
-        <v>3.296703296703324</v>
+        <v>-40</v>
       </c>
       <c r="L343" t="n">
         <v>6.200999999999995</v>
@@ -17772,7 +17794,7 @@
         <v>13.44</v>
       </c>
       <c r="K344" t="n">
-        <v>-7.317073170731657</v>
+        <v>-23.07692307692312</v>
       </c>
       <c r="L344" t="n">
         <v>6.185999999999996</v>
@@ -17823,7 +17845,7 @@
         <v>13.45</v>
       </c>
       <c r="K345" t="n">
-        <v>-14.28571428571433</v>
+        <v>-2.325581395348799</v>
       </c>
       <c r="L345" t="n">
         <v>6.174999999999995</v>
@@ -17874,7 +17896,7 @@
         <v>13.46</v>
       </c>
       <c r="K346" t="n">
-        <v>-16.88311688311688</v>
+        <v>-31.42857142857146</v>
       </c>
       <c r="L346" t="n">
         <v>6.172999999999996</v>
@@ -17925,7 +17947,7 @@
         <v>13.47</v>
       </c>
       <c r="K347" t="n">
-        <v>-15.38461538461541</v>
+        <v>-27.77777777777786</v>
       </c>
       <c r="L347" t="n">
         <v>6.162999999999995</v>
@@ -17976,7 +17998,7 @@
         <v>13.53</v>
       </c>
       <c r="K348" t="n">
-        <v>-39.72602739726025</v>
+        <v>-3.70370370370363</v>
       </c>
       <c r="L348" t="n">
         <v>6.146999999999996</v>
@@ -18027,7 +18049,7 @@
         <v>13.54</v>
       </c>
       <c r="K349" t="n">
-        <v>-37.83783783783786</v>
+        <v>0</v>
       </c>
       <c r="L349" t="n">
         <v>6.146999999999997</v>
@@ -18078,7 +18100,7 @@
         <v>13.59</v>
       </c>
       <c r="K350" t="n">
-        <v>-28.20512820512826</v>
+        <v>0</v>
       </c>
       <c r="L350" t="n">
         <v>6.151999999999996</v>
@@ -18129,7 +18151,7 @@
         <v>13.59</v>
       </c>
       <c r="K351" t="n">
-        <v>-28.20512820512826</v>
+        <v>-3.703703703703655</v>
       </c>
       <c r="L351" t="n">
         <v>6.151999999999996</v>
@@ -18180,7 +18202,7 @@
         <v>13.65</v>
       </c>
       <c r="K352" t="n">
-        <v>-33.33333333333341</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>6.144999999999995</v>
@@ -18231,7 +18253,7 @@
         <v>13.65</v>
       </c>
       <c r="K353" t="n">
-        <v>-32.5301204819278</v>
+        <v>-23.80952380952403</v>
       </c>
       <c r="L353" t="n">
         <v>6.144999999999996</v>
@@ -18282,7 +18304,7 @@
         <v>13.66</v>
       </c>
       <c r="K354" t="n">
-        <v>-27.27272727272735</v>
+        <v>-33.33333333333361</v>
       </c>
       <c r="L354" t="n">
         <v>6.138999999999996</v>
@@ -18333,7 +18355,7 @@
         <v>13.7</v>
       </c>
       <c r="K355" t="n">
-        <v>-17.94871794871808</v>
+        <v>-8.333333333333579</v>
       </c>
       <c r="L355" t="n">
         <v>6.135999999999996</v>
@@ -18384,7 +18406,7 @@
         <v>13.7</v>
       </c>
       <c r="K356" t="n">
-        <v>-5.882352941176508</v>
+        <v>-13.04347826086975</v>
       </c>
       <c r="L356" t="n">
         <v>6.133999999999996</v>
@@ -18435,7 +18457,7 @@
         <v>13.75999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>-29.23076923076938</v>
+        <v>-13.04347826086985</v>
       </c>
       <c r="L357" t="n">
         <v>6.124999999999996</v>
@@ -18486,7 +18508,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K358" t="n">
-        <v>-21.73913043478272</v>
+        <v>0</v>
       </c>
       <c r="L358" t="n">
         <v>6.125999999999996</v>
@@ -18537,7 +18559,7 @@
         <v>13.83999999999999</v>
       </c>
       <c r="K359" t="n">
-        <v>-6.896551724138</v>
+        <v>-36.00000000000045</v>
       </c>
       <c r="L359" t="n">
         <v>6.121999999999996</v>
@@ -18588,7 +18610,7 @@
         <v>13.88999999999999</v>
       </c>
       <c r="K360" t="n">
-        <v>1.587301587301565</v>
+        <v>-13.33333333333347</v>
       </c>
       <c r="L360" t="n">
         <v>6.117999999999997</v>
@@ -18639,7 +18661,7 @@
         <v>13.88999999999999</v>
       </c>
       <c r="K361" t="n">
-        <v>-6.896551724138</v>
+        <v>8.33333333333321</v>
       </c>
       <c r="L361" t="n">
         <v>6.113999999999995</v>
@@ -18690,7 +18712,7 @@
         <v>13.92999999999999</v>
       </c>
       <c r="K362" t="n">
-        <v>-14.75409836065586</v>
+        <v>-7.14285714285737</v>
       </c>
       <c r="L362" t="n">
         <v>6.111999999999997</v>
@@ -18741,7 +18763,7 @@
         <v>13.93999999999999</v>
       </c>
       <c r="K363" t="n">
-        <v>-5.454545454545546</v>
+        <v>-7.142857142857098</v>
       </c>
       <c r="L363" t="n">
         <v>6.108999999999996</v>
@@ -18792,7 +18814,7 @@
         <v>13.93999999999999</v>
       </c>
       <c r="K364" t="n">
-        <v>-16.00000000000018</v>
+        <v>-25.00000000000018</v>
       </c>
       <c r="L364" t="n">
         <v>6.106999999999996</v>
@@ -18843,7 +18865,7 @@
         <v>13.95999999999999</v>
       </c>
       <c r="K365" t="n">
-        <v>-13.72549019607863</v>
+        <v>-15.38461538461562</v>
       </c>
       <c r="L365" t="n">
         <v>6.102999999999996</v>
@@ -18894,7 +18916,7 @@
         <v>13.95999999999999</v>
       </c>
       <c r="K366" t="n">
-        <v>-12.00000000000023</v>
+        <v>9.999999999999911</v>
       </c>
       <c r="L366" t="n">
         <v>6.098999999999995</v>
@@ -18945,7 +18967,7 @@
         <v>13.96999999999999</v>
       </c>
       <c r="K367" t="n">
-        <v>-16.00000000000018</v>
+        <v>-17.64705882352975</v>
       </c>
       <c r="L367" t="n">
         <v>6.099999999999996</v>
@@ -18996,7 +19018,7 @@
         <v>14.04999999999999</v>
       </c>
       <c r="K368" t="n">
-        <v>-19.23076923076955</v>
+        <v>-33.33333333333361</v>
       </c>
       <c r="L368" t="n">
         <v>6.088999999999997</v>
@@ -19047,7 +19069,7 @@
         <v>14.12999999999999</v>
       </c>
       <c r="K369" t="n">
-        <v>-5.084745762711954</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L369" t="n">
         <v>6.089999999999996</v>
@@ -19098,7 +19120,7 @@
         <v>14.12999999999999</v>
       </c>
       <c r="K370" t="n">
-        <v>-14.81481481481495</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L370" t="n">
         <v>6.085999999999997</v>
@@ -19149,7 +19171,7 @@
         <v>14.13999999999999</v>
       </c>
       <c r="K371" t="n">
-        <v>-16.36363636363647</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L371" t="n">
         <v>6.080999999999997</v>
@@ -19200,7 +19222,7 @@
         <v>14.13999999999999</v>
       </c>
       <c r="K372" t="n">
-        <v>-6.122448979591929</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>6.079999999999997</v>
@@ -19251,7 +19273,7 @@
         <v>14.13999999999999</v>
       </c>
       <c r="K373" t="n">
-        <v>-6.122448979591929</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>6.079999999999997</v>
@@ -19302,7 +19324,7 @@
         <v>14.13999999999999</v>
       </c>
       <c r="K374" t="n">
-        <v>-4.166666666666621</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L374" t="n">
         <v>6.079999999999997</v>
@@ -19353,7 +19375,7 @@
         <v>14.13999999999999</v>
       </c>
       <c r="K375" t="n">
-        <v>-13.63636363636367</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L375" t="n">
         <v>6.077999999999997</v>
@@ -19404,7 +19426,7 @@
         <v>14.13999999999999</v>
       </c>
       <c r="K376" t="n">
-        <v>-13.63636363636367</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L376" t="n">
         <v>6.075999999999997</v>
@@ -19455,7 +19477,7 @@
         <v>14.18999999999999</v>
       </c>
       <c r="K377" t="n">
-        <v>-11.62790697674425</v>
+        <v>14.28571428571474</v>
       </c>
       <c r="L377" t="n">
         <v>6.069999999999996</v>
@@ -19506,7 +19528,7 @@
         <v>14.19999999999999</v>
       </c>
       <c r="K378" t="n">
-        <v>-25.00000000000022</v>
+        <v>-100</v>
       </c>
       <c r="L378" t="n">
         <v>6.070999999999996</v>
@@ -19557,7 +19579,7 @@
         <v>14.21999999999999</v>
       </c>
       <c r="K379" t="n">
-        <v>-21.05263157894744</v>
+        <v>-100</v>
       </c>
       <c r="L379" t="n">
         <v>6.061999999999995</v>
@@ -19608,7 +19630,7 @@
         <v>14.23999999999999</v>
       </c>
       <c r="K380" t="n">
-        <v>-42.85714285714297</v>
+        <v>-100</v>
       </c>
       <c r="L380" t="n">
         <v>6.050999999999995</v>
@@ -19659,7 +19681,7 @@
         <v>14.24999999999999</v>
       </c>
       <c r="K381" t="n">
-        <v>-38.88888888888906</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L381" t="n">
         <v>6.041999999999994</v>
@@ -19710,7 +19732,7 @@
         <v>14.24999999999999</v>
       </c>
       <c r="K382" t="n">
-        <v>-31.25000000000003</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L382" t="n">
         <v>6.032999999999994</v>
@@ -19761,7 +19783,7 @@
         <v>14.25999999999999</v>
       </c>
       <c r="K383" t="n">
-        <v>-31.25000000000003</v>
+        <v>-83.33333333333358</v>
       </c>
       <c r="L383" t="n">
         <v>6.022999999999994</v>
@@ -19812,7 +19834,7 @@
         <v>14.26999999999999</v>
       </c>
       <c r="K384" t="n">
-        <v>-27.27272727272737</v>
+        <v>-69.23076923076965</v>
       </c>
       <c r="L384" t="n">
         <v>6.013999999999994</v>
@@ -19863,7 +19885,7 @@
         <v>14.35999999999999</v>
       </c>
       <c r="K385" t="n">
-        <v>-50</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L385" t="n">
         <v>5.995999999999995</v>
@@ -19914,7 +19936,7 @@
         <v>14.43999999999999</v>
       </c>
       <c r="K386" t="n">
-        <v>-24.99999999999991</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L386" t="n">
         <v>5.985999999999995</v>
@@ -19965,7 +19987,7 @@
         <v>14.44999999999999</v>
       </c>
       <c r="K387" t="n">
-        <v>-25</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L387" t="n">
         <v>5.979999999999995</v>
@@ -20016,7 +20038,7 @@
         <v>14.44999999999999</v>
       </c>
       <c r="K388" t="n">
-        <v>-10</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L388" t="n">
         <v>5.974999999999996</v>
@@ -20067,7 +20089,7 @@
         <v>14.45999999999999</v>
       </c>
       <c r="K389" t="n">
-        <v>-33.33333333333297</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>5.972999999999996</v>
@@ -20118,7 +20140,7 @@
         <v>14.51999999999999</v>
       </c>
       <c r="K390" t="n">
-        <v>-43.58974358974331</v>
+        <v>-25.92592592592573</v>
       </c>
       <c r="L390" t="n">
         <v>5.966999999999996</v>
@@ -20169,7 +20191,7 @@
         <v>14.63</v>
       </c>
       <c r="K391" t="n">
-        <v>-55.1020408163262</v>
+        <v>-47.3684210526312</v>
       </c>
       <c r="L391" t="n">
         <v>5.948999999999996</v>
@@ -20220,7 +20242,7 @@
         <v>14.64</v>
       </c>
       <c r="K392" t="n">
-        <v>-55.99999999999965</v>
+        <v>-47.3684210526312</v>
       </c>
       <c r="L392" t="n">
         <v>5.929999999999996</v>
@@ -20271,7 +20293,7 @@
         <v>14.68999999999999</v>
       </c>
       <c r="K393" t="n">
-        <v>-59.99999999999974</v>
+        <v>-57.14285714285672</v>
       </c>
       <c r="L393" t="n">
         <v>5.906999999999995</v>
@@ -20322,7 +20344,7 @@
         <v>14.84999999999999</v>
       </c>
       <c r="K394" t="n">
-        <v>-23.94366197183089</v>
+        <v>2.040816326530553</v>
       </c>
       <c r="L394" t="n">
         <v>5.898999999999995</v>
@@ -20373,7 +20395,7 @@
         <v>15.04</v>
       </c>
       <c r="K395" t="n">
-        <v>-39.99999999999986</v>
+        <v>-43.33333333333309</v>
       </c>
       <c r="L395" t="n">
         <v>5.880999999999995</v>
@@ -20424,7 +20446,7 @@
         <v>15.11</v>
       </c>
       <c r="K396" t="n">
-        <v>-29.89690721649472</v>
+        <v>-27.27272727272708</v>
       </c>
       <c r="L396" t="n">
         <v>5.861999999999995</v>
@@ -20475,7 +20497,7 @@
         <v>15.13</v>
       </c>
       <c r="K397" t="n">
-        <v>-23.40425531914888</v>
+        <v>-23.52941176470579</v>
       </c>
       <c r="L397" t="n">
         <v>5.845999999999995</v>
@@ -20526,7 +20548,7 @@
         <v>15.13</v>
       </c>
       <c r="K398" t="n">
-        <v>-22.58064516129024</v>
+        <v>-25.37313432835827</v>
       </c>
       <c r="L398" t="n">
         <v>5.829999999999996</v>
@@ -20577,7 +20599,7 @@
         <v>15.22</v>
       </c>
       <c r="K399" t="n">
-        <v>-9.999999999999929</v>
+        <v>-2.857142857142792</v>
       </c>
       <c r="L399" t="n">
         <v>5.821999999999996</v>
@@ -20628,7 +20650,7 @@
         <v>15.23</v>
       </c>
       <c r="K400" t="n">
-        <v>-7.070707070707072</v>
+        <v>16.66666666666677</v>
       </c>
       <c r="L400" t="n">
         <v>5.820999999999995</v>
@@ -20679,7 +20701,7 @@
         <v>15.23</v>
       </c>
       <c r="K401" t="n">
-        <v>-8.163265306122423</v>
+        <v>18.64406779661023</v>
       </c>
       <c r="L401" t="n">
         <v>5.830999999999994</v>
@@ -20730,7 +20752,7 @@
         <v>15.29</v>
       </c>
       <c r="K402" t="n">
-        <v>-1.923076923076959</v>
+        <v>36.66666666666654</v>
       </c>
       <c r="L402" t="n">
         <v>5.847999999999995</v>
@@ -20781,7 +20803,7 @@
         <v>15.29</v>
       </c>
       <c r="K403" t="n">
-        <v>-0.9708737864078282</v>
+        <v>13.63636363636351</v>
       </c>
       <c r="L403" t="n">
         <v>5.869999999999995</v>
@@ -20832,7 +20854,7 @@
         <v>15.29</v>
       </c>
       <c r="K404" t="n">
-        <v>-1.960784313725526</v>
+        <v>100</v>
       </c>
       <c r="L404" t="n">
         <v>5.875999999999995</v>
@@ -20883,7 +20905,7 @@
         <v>15.29</v>
       </c>
       <c r="K405" t="n">
-        <v>7.526881720430002</v>
+        <v>100</v>
       </c>
       <c r="L405" t="n">
         <v>5.900999999999994</v>
@@ -20934,7 +20956,7 @@
         <v>15.3</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>99.99999999999947</v>
       </c>
       <c r="L406" t="n">
         <v>5.919999999999995</v>
@@ -20985,7 +21007,7 @@
         <v>15.31</v>
       </c>
       <c r="K407" t="n">
-        <v>2.325581395348878</v>
+        <v>99.99999999999952</v>
       </c>
       <c r="L407" t="n">
         <v>5.937999999999995</v>
@@ -21036,7 +21058,7 @@
         <v>15.36</v>
       </c>
       <c r="K408" t="n">
-        <v>7.692307692307693</v>
+        <v>99.99999999999936</v>
       </c>
       <c r="L408" t="n">
         <v>5.960999999999996</v>
@@ -21087,7 +21109,7 @@
         <v>15.44</v>
       </c>
       <c r="K409" t="n">
-        <v>14.28571428571422</v>
+        <v>99.99999999999957</v>
       </c>
       <c r="L409" t="n">
         <v>5.982999999999996</v>
@@ -21138,7 +21160,7 @@
         <v>15.45</v>
       </c>
       <c r="K410" t="n">
-        <v>20.43010752688173</v>
+        <v>90.90909090909072</v>
       </c>
       <c r="L410" t="n">
         <v>6.002999999999997</v>
@@ -21189,7 +21211,7 @@
         <v>15.45</v>
       </c>
       <c r="K411" t="n">
-        <v>36.58536585365861</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L411" t="n">
         <v>6.022999999999998</v>
@@ -21240,7 +21262,7 @@
         <v>15.45</v>
       </c>
       <c r="K412" t="n">
-        <v>38.27160493827164</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L412" t="n">
         <v>6.036999999999997</v>
@@ -21291,7 +21313,7 @@
         <v>15.45</v>
       </c>
       <c r="K413" t="n">
-        <v>47.36842105263153</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L413" t="n">
         <v>6.050999999999997</v>
@@ -21342,7 +21364,7 @@
         <v>15.45</v>
       </c>
       <c r="K414" t="n">
-        <v>33.33333333333328</v>
+        <v>87.50000000000028</v>
       </c>
       <c r="L414" t="n">
         <v>6.064999999999998</v>
@@ -21393,7 +21415,7 @@
         <v>15.45</v>
       </c>
       <c r="K415" t="n">
-        <v>95.1219512195123</v>
+        <v>86.66666666666741</v>
       </c>
       <c r="L415" t="n">
         <v>6.078999999999998</v>
@@ -21444,7 +21466,7 @@
         <v>15.46</v>
       </c>
       <c r="K416" t="n">
-        <v>88.5714285714281</v>
+        <v>73.33333333333279</v>
       </c>
       <c r="L416" t="n">
         <v>6.090999999999997</v>
@@ -21495,7 +21517,7 @@
         <v>15.73</v>
       </c>
       <c r="K417" t="n">
-        <v>3.333333333333403</v>
+        <v>-56.7567567567566</v>
       </c>
       <c r="L417" t="n">
         <v>6.074999999999997</v>
@@ -21546,7 +21568,7 @@
         <v>15.97</v>
       </c>
       <c r="K418" t="n">
-        <v>30.95238095238097</v>
+        <v>-9.433962264150891</v>
       </c>
       <c r="L418" t="n">
         <v>6.077999999999997</v>
@@ -21597,7 +21619,7 @@
         <v>15.97</v>
       </c>
       <c r="K419" t="n">
-        <v>22.6666666666666</v>
+        <v>-7.692307692307679</v>
       </c>
       <c r="L419" t="n">
         <v>6.072999999999997</v>
@@ -21648,7 +21670,7 @@
         <v>15.98</v>
       </c>
       <c r="K420" t="n">
-        <v>19.99999999999988</v>
+        <v>-9.433962264151058</v>
       </c>
       <c r="L420" t="n">
         <v>6.067999999999996</v>
@@ -21699,7 +21721,7 @@
         <v>15.99</v>
       </c>
       <c r="K421" t="n">
-        <v>21.0526315789473</v>
+        <v>-7.407407407407376</v>
       </c>
       <c r="L421" t="n">
         <v>6.063999999999997</v>
@@ -21750,7 +21772,7 @@
         <v>16.02</v>
       </c>
       <c r="K422" t="n">
-        <v>9.589041095890398</v>
+        <v>-12.28070175438593</v>
       </c>
       <c r="L422" t="n">
         <v>6.056999999999998</v>
@@ -21801,7 +21823,7 @@
         <v>16.04</v>
       </c>
       <c r="K423" t="n">
-        <v>11.99999999999993</v>
+        <v>-8.474576271186512</v>
       </c>
       <c r="L423" t="n">
         <v>6.051999999999998</v>
@@ -21852,7 +21874,7 @@
         <v>16.04</v>
       </c>
       <c r="K424" t="n">
-        <v>11.99999999999993</v>
+        <v>-8.474576271186512</v>
       </c>
       <c r="L424" t="n">
         <v>6.046999999999999</v>
@@ -21903,7 +21925,7 @@
         <v>16.07</v>
       </c>
       <c r="K425" t="n">
-        <v>7.692307692307709</v>
+        <v>-11.47540983606542</v>
       </c>
       <c r="L425" t="n">
         <v>6.038999999999999</v>
@@ -21954,7 +21976,7 @@
         <v>16.08</v>
       </c>
       <c r="K426" t="n">
-        <v>5.128205128204987</v>
+        <v>54.28571428571337</v>
       </c>
       <c r="L426" t="n">
         <v>6.030999999999998</v>
@@ -22005,7 +22027,7 @@
         <v>16.11</v>
       </c>
       <c r="K427" t="n">
-        <v>0</v>
+        <v>-57.14285714285624</v>
       </c>
       <c r="L427" t="n">
         <v>6.046999999999999</v>
@@ -22056,7 +22078,7 @@
         <v>16.14</v>
       </c>
       <c r="K428" t="n">
-        <v>-2.564102564102608</v>
+        <v>-29.41176470588217</v>
       </c>
       <c r="L428" t="n">
         <v>6.041999999999998</v>
@@ -22107,7 +22129,7 @@
         <v>16.14</v>
       </c>
       <c r="K429" t="n">
-        <v>-14.28571428571427</v>
+        <v>-24.99999999999945</v>
       </c>
       <c r="L429" t="n">
         <v>6.036999999999998</v>
@@ -22158,7 +22180,7 @@
         <v>16.14</v>
       </c>
       <c r="K430" t="n">
-        <v>-13.04347826086958</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L430" t="n">
         <v>6.032999999999999</v>
@@ -22209,7 +22231,7 @@
         <v>16.14</v>
       </c>
       <c r="K431" t="n">
-        <v>-13.04347826086958</v>
+        <v>-16.66666666666691</v>
       </c>
       <c r="L431" t="n">
         <v>6.027999999999998</v>
@@ -22260,7 +22282,7 @@
         <v>16.16</v>
       </c>
       <c r="K432" t="n">
-        <v>-15.49295774647882</v>
+        <v>-49.99999999999926</v>
       </c>
       <c r="L432" t="n">
         <v>6.023999999999997</v>
@@ -22311,7 +22333,7 @@
         <v>16.17</v>
       </c>
       <c r="K433" t="n">
-        <v>-16.66666666666654</v>
+        <v>-53.84615384615232</v>
       </c>
       <c r="L433" t="n">
         <v>6.016999999999998</v>
@@ -22362,7 +22384,7 @@
         <v>16.17</v>
       </c>
       <c r="K434" t="n">
-        <v>-16.66666666666654</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L434" t="n">
         <v>6.009999999999996</v>
@@ -22413,7 +22435,7 @@
         <v>16.31</v>
       </c>
       <c r="K435" t="n">
-        <v>-30.23255813953473</v>
+        <v>-73.9130434782607</v>
       </c>
       <c r="L435" t="n">
         <v>5.991999999999996</v>
@@ -22464,7 +22486,7 @@
         <v>16.45</v>
       </c>
       <c r="K436" t="n">
-        <v>-11.11111111111099</v>
+        <v>0</v>
       </c>
       <c r="L436" t="n">
         <v>5.988999999999995</v>
@@ -22515,7 +22537,7 @@
         <v>16.46</v>
       </c>
       <c r="K437" t="n">
-        <v>23.28767123287658</v>
+        <v>-6.249999999999861</v>
       </c>
       <c r="L437" t="n">
         <v>5.989999999999996</v>
@@ -22566,7 +22588,7 @@
         <v>16.46</v>
       </c>
       <c r="K438" t="n">
-        <v>-14.28571428571423</v>
+        <v>-6.249999999999861</v>
       </c>
       <c r="L438" t="n">
         <v>5.987999999999995</v>
@@ -22617,7 +22639,7 @@
         <v>16.46</v>
       </c>
       <c r="K439" t="n">
-        <v>-14.28571428571423</v>
+        <v>-6.249999999999861</v>
       </c>
       <c r="L439" t="n">
         <v>5.985999999999995</v>
@@ -22668,7 +22690,7 @@
         <v>16.61</v>
       </c>
       <c r="K440" t="n">
-        <v>-33.33333333333319</v>
+        <v>-36.17021276595752</v>
       </c>
       <c r="L440" t="n">
         <v>5.968999999999996</v>
@@ -22719,7 +22741,7 @@
         <v>16.73</v>
       </c>
       <c r="K441" t="n">
-        <v>-13.51351351351355</v>
+        <v>-5.263157894736883</v>
       </c>
       <c r="L441" t="n">
         <v>5.963999999999996</v>
@@ -22770,7 +22792,7 @@
         <v>16.73</v>
       </c>
       <c r="K442" t="n">
-        <v>-9.859154929577493</v>
+        <v>-3.571428571428662</v>
       </c>
       <c r="L442" t="n">
         <v>5.960999999999996</v>
@@ -22821,7 +22843,7 @@
         <v>16.74</v>
       </c>
       <c r="K443" t="n">
-        <v>-14.28571428571418</v>
+        <v>-5.263157894736883</v>
       </c>
       <c r="L443" t="n">
         <v>5.957999999999995</v>
@@ -22872,7 +22894,7 @@
         <v>16.91</v>
       </c>
       <c r="K444" t="n">
-        <v>-31.03448275862048</v>
+        <v>-9.999999999999911</v>
       </c>
       <c r="L444" t="n">
         <v>5.937999999999994</v>
@@ -22923,7 +22945,7 @@
         <v>17.04</v>
       </c>
       <c r="K445" t="n">
-        <v>-11.34020618556701</v>
+        <v>-11.86440677966107</v>
       </c>
       <c r="L445" t="n">
         <v>5.944999999999994</v>
@@ -22974,7 +22996,7 @@
         <v>17.05</v>
       </c>
       <c r="K446" t="n">
-        <v>-11.34020618556692</v>
+        <v>-15.25423728813548</v>
       </c>
       <c r="L446" t="n">
         <v>5.936999999999994</v>
@@ -23025,7 +23047,7 @@
         <v>17.08000000000001</v>
       </c>
       <c r="K447" t="n">
-        <v>-5.154639175257682</v>
+        <v>-9.677419354838577</v>
       </c>
       <c r="L447" t="n">
         <v>5.930999999999995</v>
@@ -23076,7 +23098,7 @@
         <v>17.08000000000001</v>
       </c>
       <c r="K448" t="n">
-        <v>-8.510638297872211</v>
+        <v>-9.677419354838577</v>
       </c>
       <c r="L448" t="n">
         <v>5.924999999999994</v>
@@ -23127,7 +23149,7 @@
         <v>17.08000000000001</v>
       </c>
       <c r="K449" t="n">
-        <v>-8.510638297872211</v>
+        <v>19.14893617021268</v>
       </c>
       <c r="L449" t="n">
         <v>5.918999999999994</v>
@@ -23178,7 +23200,7 @@
         <v>17.1</v>
       </c>
       <c r="K450" t="n">
-        <v>-6.249999999999931</v>
+        <v>-2.702702702702612</v>
       </c>
       <c r="L450" t="n">
         <v>5.929999999999993</v>
@@ -23229,7 +23251,7 @@
         <v>17.15000000000001</v>
       </c>
       <c r="K451" t="n">
-        <v>-0.9900990099009639</v>
+        <v>9.523809523809414</v>
       </c>
       <c r="L451" t="n">
         <v>5.933999999999993</v>
@@ -23280,7 +23302,7 @@
         <v>17.15000000000001</v>
       </c>
       <c r="K452" t="n">
-        <v>1.010101010100983</v>
+        <v>12.19512195121936</v>
       </c>
       <c r="L452" t="n">
         <v>5.937999999999994</v>
@@ -23331,7 +23353,7 @@
         <v>17.16</v>
       </c>
       <c r="K453" t="n">
-        <v>3.03030303030296</v>
+        <v>91.99999999999982</v>
       </c>
       <c r="L453" t="n">
         <v>5.943999999999994</v>
@@ -23382,7 +23404,7 @@
         <v>17.22000000000001</v>
       </c>
       <c r="K454" t="n">
-        <v>8.571428571428523</v>
+        <v>88.88888888888735</v>
       </c>
       <c r="L454" t="n">
         <v>5.972999999999994</v>
@@ -23433,7 +23455,7 @@
         <v>17.22000000000001</v>
       </c>
       <c r="K455" t="n">
-        <v>25.27472527472522</v>
+        <v>99.99999999999896</v>
       </c>
       <c r="L455" t="n">
         <v>5.988999999999995</v>
@@ -23484,7 +23506,7 @@
         <v>17.22000000000001</v>
       </c>
       <c r="K456" t="n">
-        <v>11.68831168831162</v>
+        <v>99.99999999999936</v>
       </c>
       <c r="L456" t="n">
         <v>6.005999999999995</v>
@@ -23535,7 +23557,7 @@
         <v>17.22000000000001</v>
       </c>
       <c r="K457" t="n">
-        <v>10.52631578947362</v>
+        <v>99.99999999999936</v>
       </c>
       <c r="L457" t="n">
         <v>6.019999999999994</v>
@@ -23586,7 +23608,7 @@
         <v>17.23</v>
       </c>
       <c r="K458" t="n">
-        <v>11.68831168831162</v>
+        <v>100.0000000000006</v>
       </c>
       <c r="L458" t="n">
         <v>6.034999999999995</v>
@@ -23637,7 +23659,7 @@
         <v>17.23</v>
       </c>
       <c r="K459" t="n">
-        <v>11.68831168831162</v>
+        <v>100.0000000000007</v>
       </c>
       <c r="L459" t="n">
         <v>6.049999999999995</v>
@@ -23688,7 +23710,7 @@
         <v>17.24</v>
       </c>
       <c r="K460" t="n">
-        <v>39.68253968253952</v>
+        <v>100.000000000004</v>
       </c>
       <c r="L460" t="n">
         <v>6.063999999999995</v>
@@ -23739,7 +23761,7 @@
         <v>17.24</v>
       </c>
       <c r="K461" t="n">
-        <v>25.49019607843127</v>
+        <v>100.000000000004</v>
       </c>
       <c r="L461" t="n">
         <v>6.072999999999995</v>
@@ -23790,7 +23812,7 @@
         <v>17.24</v>
       </c>
       <c r="K462" t="n">
-        <v>25.49019607843127</v>
+        <v>100.0000000000022</v>
       </c>
       <c r="L462" t="n">
         <v>6.081999999999995</v>
@@ -23841,7 +23863,7 @@
         <v>17.24</v>
       </c>
       <c r="K463" t="n">
-        <v>27.99999999999994</v>
+        <v>100.0000000000178</v>
       </c>
       <c r="L463" t="n">
         <v>6.089999999999996</v>
@@ -23892,7 +23914,7 @@
         <v>17.24</v>
       </c>
       <c r="K464" t="n">
-        <v>93.93939393939431</v>
+        <v>100.0000000000178</v>
       </c>
       <c r="L464" t="n">
         <v>6.091999999999996</v>
@@ -23943,7 +23965,7 @@
         <v>17.26</v>
       </c>
       <c r="K465" t="n">
-        <v>90.90909090909146</v>
+        <v>100.0000000000111</v>
       </c>
       <c r="L465" t="n">
         <v>6.095999999999997</v>
@@ -23994,7 +24016,7 @@
         <v>17.26</v>
       </c>
       <c r="K466" t="n">
-        <v>100.0000000000013</v>
+        <v>100.0000000000111</v>
       </c>
       <c r="L466" t="n">
         <v>6.099999999999997</v>
@@ -24045,7 +24067,7 @@
         <v>17.26</v>
       </c>
       <c r="K467" t="n">
-        <v>100.000000000002</v>
+        <v>100.0000000000089</v>
       </c>
       <c r="L467" t="n">
         <v>6.103999999999997</v>
@@ -24096,7 +24118,7 @@
         <v>17.38</v>
       </c>
       <c r="K468" t="n">
-        <v>20.00000000000006</v>
+        <v>-60.00000000000048</v>
       </c>
       <c r="L468" t="n">
         <v>6.094999999999997</v>
@@ -24147,7 +24169,7 @@
         <v>17.49</v>
       </c>
       <c r="K469" t="n">
-        <v>41.46341463414667</v>
+        <v>4.00000000000027</v>
       </c>
       <c r="L469" t="n">
         <v>6.096999999999997</v>
@@ -24198,7 +24220,7 @@
         <v>17.49</v>
       </c>
       <c r="K470" t="n">
-        <v>38.46153846153884</v>
+        <v>4.00000000000027</v>
       </c>
       <c r="L470" t="n">
         <v>6.097999999999997</v>
@@ -24249,7 +24271,7 @@
         <v>17.49</v>
       </c>
       <c r="K471" t="n">
-        <v>29.41176470588283</v>
+        <v>4.00000000000027</v>
       </c>
       <c r="L471" t="n">
         <v>6.098999999999998</v>
@@ -24300,7 +24322,7 @@
         <v>17.6</v>
       </c>
       <c r="K472" t="n">
-        <v>-2.222222222222196</v>
+        <v>-27.77777777777772</v>
       </c>
       <c r="L472" t="n">
         <v>6.088999999999998</v>
@@ -24351,7 +24373,7 @@
         <v>17.71</v>
       </c>
       <c r="K473" t="n">
-        <v>16.36363636363658</v>
+        <v>2.127659574468234</v>
       </c>
       <c r="L473" t="n">
         <v>6.089999999999998</v>
@@ -24402,7 +24424,7 @@
         <v>17.71</v>
       </c>
       <c r="K474" t="n">
-        <v>6.122448979591951</v>
+        <v>-2.222222222222178</v>
       </c>
       <c r="L474" t="n">
         <v>6.090999999999999</v>
@@ -24453,7 +24475,7 @@
         <v>17.73</v>
       </c>
       <c r="K475" t="n">
-        <v>1.96078431372547</v>
+        <v>-6.382978723404324</v>
       </c>
       <c r="L475" t="n">
         <v>6.087999999999999</v>
@@ -24504,7 +24526,7 @@
         <v>17.73</v>
       </c>
       <c r="K476" t="n">
-        <v>1.96078431372547</v>
+        <v>-6.382978723404324</v>
       </c>
       <c r="L476" t="n">
         <v>6.084999999999999</v>
@@ -24555,7 +24577,7 @@
         <v>17.73</v>
       </c>
       <c r="K477" t="n">
-        <v>1.96078431372547</v>
+        <v>25.71428571428583</v>
       </c>
       <c r="L477" t="n">
         <v>6.081999999999999</v>
@@ -24606,7 +24628,7 @@
         <v>17.73</v>
       </c>
       <c r="K478" t="n">
-        <v>0</v>
+        <v>-8.333333333333579</v>
       </c>
       <c r="L478" t="n">
         <v>6.090999999999998</v>
@@ -24657,7 +24679,7 @@
         <v>17.74</v>
       </c>
       <c r="K479" t="n">
-        <v>1.960784313725456</v>
+        <v>-4.00000000000027</v>
       </c>
       <c r="L479" t="n">
         <v>6.089999999999998</v>
@@ -24708,7 +24730,7 @@
         <v>17.76</v>
       </c>
       <c r="K480" t="n">
-        <v>3.846153846153938</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L480" t="n">
         <v>6.090999999999998</v>
@@ -24759,7 +24781,7 @@
         <v>17.76</v>
       </c>
       <c r="K481" t="n">
-        <v>3.846153846153938</v>
+        <v>75</v>
       </c>
       <c r="L481" t="n">
         <v>6.091999999999999</v>
@@ -24810,7 +24832,7 @@
         <v>17.76</v>
       </c>
       <c r="K482" t="n">
-        <v>3.846153846153938</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L482" t="n">
         <v>6.103999999999999</v>
@@ -24861,7 +24883,7 @@
         <v>17.76</v>
       </c>
       <c r="K483" t="n">
-        <v>3.846153846153938</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L483" t="n">
         <v>6.105</v>
@@ -24912,7 +24934,7 @@
         <v>17.78</v>
       </c>
       <c r="K484" t="n">
-        <v>7.407407407407425</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L484" t="n">
         <v>6.108</v>
@@ -24963,7 +24985,7 @@
         <v>17.89</v>
       </c>
       <c r="K485" t="n">
-        <v>-14.28571428571428</v>
+        <v>-37.49999999999972</v>
       </c>
       <c r="L485" t="n">
         <v>6.101999999999999</v>
@@ -25014,7 +25036,7 @@
         <v>17.92</v>
       </c>
       <c r="K486" t="n">
-        <v>-18.18181818181819</v>
+        <v>-47.36842105263118</v>
       </c>
       <c r="L486" t="n">
         <v>6.092999999999999</v>
@@ -25065,7 +25087,7 @@
         <v>18.02</v>
       </c>
       <c r="K487" t="n">
-        <v>-2.631578947368476</v>
+        <v>3.44827586206886</v>
       </c>
       <c r="L487" t="n">
         <v>6.093999999999999</v>
@@ -25116,7 +25138,7 @@
         <v>18.12</v>
       </c>
       <c r="K488" t="n">
-        <v>0</v>
+        <v>-26.31578947368394</v>
       </c>
       <c r="L488" t="n">
         <v>6.084999999999998</v>
@@ -25167,7 +25189,7 @@
         <v>18.22000000000001</v>
       </c>
       <c r="K489" t="n">
-        <v>-1.369863013698715</v>
+        <v>-4.347826086956581</v>
       </c>
       <c r="L489" t="n">
         <v>6.084999999999997</v>
@@ -25218,7 +25240,7 @@
         <v>18.22000000000001</v>
       </c>
       <c r="K490" t="n">
-        <v>-1.369863013698715</v>
+        <v>-4.347826086956581</v>
       </c>
       <c r="L490" t="n">
         <v>6.082999999999998</v>
@@ -25269,7 +25291,7 @@
         <v>18.23000000000001</v>
       </c>
       <c r="K491" t="n">
-        <v>0</v>
+        <v>-2.127659574468013</v>
       </c>
       <c r="L491" t="n">
         <v>6.081999999999999</v>
@@ -25320,7 +25342,7 @@
         <v>18.23000000000001</v>
       </c>
       <c r="K492" t="n">
-        <v>17.46031746031734</v>
+        <v>-2.127659574468013</v>
       </c>
       <c r="L492" t="n">
         <v>6.081</v>
@@ -25371,7 +25393,7 @@
         <v>18.23000000000001</v>
       </c>
       <c r="K493" t="n">
-        <v>0</v>
+        <v>-6.666666666666429</v>
       </c>
       <c r="L493" t="n">
         <v>6.08</v>
@@ -25422,7 +25444,7 @@
         <v>18.23000000000001</v>
       </c>
       <c r="K494" t="n">
-        <v>0</v>
+        <v>23.52941176470542</v>
       </c>
       <c r="L494" t="n">
         <v>6.077000000000001</v>
@@ -25473,7 +25495,7 @@
         <v>18.23000000000001</v>
       </c>
       <c r="K495" t="n">
-        <v>4.000000000000036</v>
+        <v>35.48387096774137</v>
       </c>
       <c r="L495" t="n">
         <v>6.085000000000001</v>
@@ -25524,7 +25546,7 @@
         <v>18.23000000000001</v>
       </c>
       <c r="K496" t="n">
-        <v>4.000000000000036</v>
+        <v>4.761904761904984</v>
       </c>
       <c r="L496" t="n">
         <v>6.096000000000001</v>
@@ -25575,7 +25597,7 @@
         <v>18.24000000000001</v>
       </c>
       <c r="K497" t="n">
-        <v>5.882352941176419</v>
+        <v>99.99999999999631</v>
       </c>
       <c r="L497" t="n">
         <v>6.098000000000001</v>
@@ -25626,7 +25648,7 @@
         <v>18.24000000000001</v>
       </c>
       <c r="K498" t="n">
-        <v>5.882352941176419</v>
+        <v>99.99999999998667</v>
       </c>
       <c r="L498" t="n">
         <v>6.110000000000001</v>
@@ -25677,7 +25699,7 @@
         <v>18.25000000000001</v>
       </c>
       <c r="K499" t="n">
-        <v>1.960784313725603</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L499" t="n">
         <v>6.111000000000001</v>
@@ -25728,7 +25750,7 @@
         <v>18.30000000000001</v>
       </c>
       <c r="K500" t="n">
-        <v>-11.11111111111108</v>
+        <v>-71.42857142857216</v>
       </c>
       <c r="L500" t="n">
         <v>6.107</v>
@@ -25779,7 +25801,7 @@
         <v>18.44000000000001</v>
       </c>
       <c r="K501" t="n">
-        <v>-29.41176470588208</v>
+        <v>-90.4761904761903</v>
       </c>
       <c r="L501" t="n">
         <v>6.087999999999999</v>
@@ -25830,7 +25852,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K502" t="n">
-        <v>-4.761904761904727</v>
+        <v>-8.108108108108153</v>
       </c>
       <c r="L502" t="n">
         <v>6.084999999999999</v>
@@ -25881,7 +25903,7 @@
         <v>18.66000000000001</v>
       </c>
       <c r="K503" t="n">
-        <v>-11.11111111111106</v>
+        <v>-20.93023255813955</v>
       </c>
       <c r="L503" t="n">
         <v>6.075999999999999</v>
@@ -25932,7 +25954,7 @@
         <v>18.79000000000001</v>
       </c>
       <c r="K504" t="n">
-        <v>0.9900990099010449</v>
+        <v>7.142857142857075</v>
       </c>
       <c r="L504" t="n">
         <v>6.08</v>
@@ -25983,7 +26005,7 @@
         <v>18.79000000000001</v>
       </c>
       <c r="K505" t="n">
-        <v>13.33333333333316</v>
+        <v>7.142857142857075</v>
       </c>
       <c r="L505" t="n">
         <v>6.084000000000001</v>
@@ -26034,7 +26056,7 @@
         <v>18.79000000000001</v>
       </c>
       <c r="K506" t="n">
-        <v>17.24137931034464</v>
+        <v>5.454545454545458</v>
       </c>
       <c r="L506" t="n">
         <v>6.088000000000001</v>
@@ -26085,7 +26107,7 @@
         <v>18.79000000000001</v>
       </c>
       <c r="K507" t="n">
-        <v>6.4935064935065</v>
+        <v>5.454545454545458</v>
       </c>
       <c r="L507" t="n">
         <v>6.091000000000002</v>
@@ -26136,7 +26158,7 @@
         <v>18.81000000000001</v>
       </c>
       <c r="K508" t="n">
-        <v>18.84057971014468</v>
+        <v>3.571428571428458</v>
       </c>
       <c r="L508" t="n">
         <v>6.092000000000002</v>
@@ -26187,7 +26209,7 @@
         <v>18.87000000000001</v>
       </c>
       <c r="K509" t="n">
-        <v>-4.615384615384476</v>
+        <v>1.754385964912387</v>
       </c>
       <c r="L509" t="n">
         <v>6.088000000000003</v>
@@ -26238,7 +26260,7 @@
         <v>18.88000000000001</v>
       </c>
       <c r="K510" t="n">
-        <v>-6.060606060606</v>
+        <v>31.8181818181814</v>
       </c>
       <c r="L510" t="n">
         <v>6.088000000000003</v>
@@ -26289,7 +26311,7 @@
         <v>18.94000000000001</v>
       </c>
       <c r="K511" t="n">
-        <v>1.408450704225313</v>
+        <v>11.76470588235283</v>
       </c>
       <c r="L511" t="n">
         <v>6.108000000000002</v>
@@ -26340,7 +26362,7 @@
         <v>18.94000000000001</v>
       </c>
       <c r="K512" t="n">
-        <v>1.408450704225313</v>
+        <v>35.71428571428576</v>
       </c>
       <c r="L512" t="n">
         <v>6.112000000000004</v>
@@ -26391,7 +26413,7 @@
         <v>18.95000000000001</v>
       </c>
       <c r="K513" t="n">
-        <v>2.777777777777709</v>
+        <v>-12.50000000000055</v>
       </c>
       <c r="L513" t="n">
         <v>6.123000000000003</v>
@@ -26442,7 +26464,7 @@
         <v>18.95000000000001</v>
       </c>
       <c r="K514" t="n">
-        <v>2.777777777777709</v>
+        <v>-12.50000000000055</v>
       </c>
       <c r="L514" t="n">
         <v>6.121000000000003</v>
@@ -26493,7 +26515,7 @@
         <v>18.96000000000001</v>
       </c>
       <c r="K515" t="n">
-        <v>1.3698630136986</v>
+        <v>-17.64705882353012</v>
       </c>
       <c r="L515" t="n">
         <v>6.118000000000003</v>
@@ -26544,7 +26566,7 @@
         <v>18.97000000000001</v>
       </c>
       <c r="K516" t="n">
-        <v>2.702702702702651</v>
+        <v>-11.11111111111182</v>
       </c>
       <c r="L516" t="n">
         <v>6.116000000000003</v>
@@ -26595,7 +26617,7 @@
         <v>18.97000000000001</v>
       </c>
       <c r="K517" t="n">
-        <v>1.369863013698607</v>
+        <v>0</v>
       </c>
       <c r="L517" t="n">
         <v>6.114000000000003</v>
@@ -26646,7 +26668,7 @@
         <v>18.99000000000001</v>
       </c>
       <c r="K518" t="n">
-        <v>-1.333333333333311</v>
+        <v>33.33333333333506</v>
       </c>
       <c r="L518" t="n">
         <v>6.112000000000004</v>
@@ -26697,7 +26719,7 @@
         <v>18.99000000000001</v>
       </c>
       <c r="K519" t="n">
-        <v>0</v>
+        <v>45.45454545454927</v>
       </c>
       <c r="L519" t="n">
         <v>6.116000000000005</v>
@@ -26748,7 +26770,7 @@
         <v>19.01000000000001</v>
       </c>
       <c r="K520" t="n">
-        <v>9.859154929577542</v>
+        <v>14.28571428571537</v>
       </c>
       <c r="L520" t="n">
         <v>6.123000000000005</v>
@@ -26799,7 +26821,7 @@
         <v>19.06000000000001</v>
       </c>
       <c r="K521" t="n">
-        <v>25.80645161290335</v>
+        <v>-33.33333333333506</v>
       </c>
       <c r="L521" t="n">
         <v>6.119000000000005</v>
@@ -26850,7 +26872,7 @@
         <v>19.1</v>
       </c>
       <c r="K522" t="n">
-        <v>-8.000000000000064</v>
+        <v>-60.0000000000019</v>
       </c>
       <c r="L522" t="n">
         <v>6.111000000000005</v>
@@ -26901,7 +26923,7 @@
         <v>19.12</v>
       </c>
       <c r="K523" t="n">
-        <v>0</v>
+        <v>-64.70588235294342</v>
       </c>
       <c r="L523" t="n">
         <v>6.100000000000005</v>
@@ -26952,7 +26974,7 @@
         <v>19.21</v>
       </c>
       <c r="K524" t="n">
-        <v>-9.523809523809735</v>
+        <v>-3.999999999999972</v>
       </c>
       <c r="L524" t="n">
         <v>6.098000000000005</v>
@@ -27003,7 +27025,7 @@
         <v>19.29000000000001</v>
       </c>
       <c r="K525" t="n">
-        <v>-24.00000000000036</v>
+        <v>-31.24999999999986</v>
       </c>
       <c r="L525" t="n">
         <v>6.089000000000005</v>
@@ -27054,7 +27076,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K526" t="n">
-        <v>-25.4901960784318</v>
+        <v>-33.33333333333324</v>
       </c>
       <c r="L526" t="n">
         <v>6.078000000000005</v>
@@ -27105,7 +27127,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K527" t="n">
-        <v>-25.4901960784318</v>
+        <v>-29.03225806451616</v>
       </c>
       <c r="L527" t="n">
         <v>6.067000000000005</v>
@@ -27156,7 +27178,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K528" t="n">
-        <v>-22.44897959183703</v>
+        <v>-29.03225806451616</v>
       </c>
       <c r="L528" t="n">
         <v>6.058000000000005</v>
@@ -27207,7 +27229,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K529" t="n">
-        <v>-11.62790697674446</v>
+        <v>-37.93103448275838</v>
       </c>
       <c r="L529" t="n">
         <v>6.049000000000005</v>
@@ -27258,7 +27280,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K530" t="n">
-        <v>-9.523809523809655</v>
+        <v>-25</v>
       </c>
       <c r="L530" t="n">
         <v>6.038000000000005</v>
@@ -27309,7 +27331,7 @@
         <v>19.39000000000001</v>
       </c>
       <c r="K531" t="n">
-        <v>-42.22222222222271</v>
+        <v>-37.93103448275838</v>
       </c>
       <c r="L531" t="n">
         <v>6.023000000000005</v>
@@ -27360,7 +27382,7 @@
         <v>19.44000000000001</v>
       </c>
       <c r="K532" t="n">
-        <v>-48.00000000000038</v>
+        <v>-43.74999999999937</v>
       </c>
       <c r="L532" t="n">
         <v>6.007000000000004</v>
@@ -27411,7 +27433,7 @@
         <v>19.44000000000001</v>
       </c>
       <c r="K533" t="n">
-        <v>-51.02040816326547</v>
+        <v>-99.99999999999845</v>
       </c>
       <c r="L533" t="n">
         <v>5.993000000000005</v>
@@ -27462,7 +27484,7 @@
         <v>19.58000000000001</v>
       </c>
       <c r="K534" t="n">
-        <v>-17.46031746031754</v>
+        <v>-3.448275862069166</v>
       </c>
       <c r="L534" t="n">
         <v>5.984000000000004</v>
@@ -27513,7 +27535,7 @@
         <v>19.59000000000001</v>
       </c>
       <c r="K535" t="n">
-        <v>-17.46031746031744</v>
+        <v>-3.44827586206886</v>
       </c>
       <c r="L535" t="n">
         <v>5.982000000000005</v>
@@ -27564,7 +27586,7 @@
         <v>19.74000000000001</v>
       </c>
       <c r="K536" t="n">
-        <v>-35.06493506493486</v>
+        <v>-36.36363636363609</v>
       </c>
       <c r="L536" t="n">
         <v>5.966000000000006</v>
@@ -27666,7 +27688,7 @@
         <v>19.77000000000001</v>
       </c>
       <c r="K538" t="n">
-        <v>-28.20512820512824</v>
+        <v>-27.65957446808515</v>
       </c>
       <c r="L538" t="n">
         <v>5.938000000000007</v>
@@ -27717,7 +27739,7 @@
         <v>19.89000000000001</v>
       </c>
       <c r="K539" t="n">
-        <v>-11.11111111111114</v>
+        <v>-1.694915254237252</v>
       </c>
       <c r="L539" t="n">
         <v>5.937000000000007</v>
@@ -27768,7 +27790,7 @@
         <v>20.02000000000001</v>
       </c>
       <c r="K540" t="n">
-        <v>-24.75247524752471</v>
+        <v>-7.936507936507921</v>
       </c>
       <c r="L540" t="n">
         <v>5.923000000000007</v>
@@ -27819,7 +27841,7 @@
         <v>20.06000000000001</v>
       </c>
       <c r="K541" t="n">
-        <v>-24.00000000000002</v>
+        <v>-6.451612903225838</v>
       </c>
       <c r="L541" t="n">
         <v>5.914000000000008</v>
@@ -27870,7 +27892,7 @@
         <v>20.07000000000001</v>
       </c>
       <c r="K542" t="n">
-        <v>-19.58762886597937</v>
+        <v>-4.761904761904809</v>
       </c>
       <c r="L542" t="n">
         <v>5.911000000000008</v>
@@ -27921,7 +27943,7 @@
         <v>20.21000000000001</v>
       </c>
       <c r="K543" t="n">
-        <v>-2.752293577981584</v>
+        <v>-4.761904761904668</v>
       </c>
       <c r="L543" t="n">
         <v>5.922000000000008</v>
@@ -27972,7 +27994,7 @@
         <v>20.22000000000001</v>
       </c>
       <c r="K544" t="n">
-        <v>-12.87128712871284</v>
+        <v>-4.761904761904695</v>
       </c>
       <c r="L544" t="n">
         <v>5.918000000000008</v>
@@ -28023,7 +28045,7 @@
         <v>20.22000000000001</v>
       </c>
       <c r="K545" t="n">
-        <v>-5.376344086021488</v>
+        <v>25.00000000000018</v>
       </c>
       <c r="L545" t="n">
         <v>5.915000000000008</v>
@@ -28074,7 +28096,7 @@
         <v>20.40000000000001</v>
       </c>
       <c r="K546" t="n">
-        <v>-20.00000000000001</v>
+        <v>-10.76923076923084</v>
       </c>
       <c r="L546" t="n">
         <v>5.909000000000009</v>
@@ -28125,7 +28147,7 @@
         <v>20.45000000000001</v>
       </c>
       <c r="K547" t="n">
-        <v>-23.47826086956521</v>
+        <v>-20.58823529411761</v>
       </c>
       <c r="L547" t="n">
         <v>5.897000000000009</v>
@@ -28176,7 +28198,7 @@
         <v>20.62</v>
       </c>
       <c r="K548" t="n">
-        <v>-7.575757575757567</v>
+        <v>-12.3287671232877</v>
       </c>
       <c r="L548" t="n">
         <v>5.900000000000008</v>
@@ -28227,7 +28249,7 @@
         <v>20.62</v>
       </c>
       <c r="K549" t="n">
-        <v>-7.575757575757567</v>
+        <v>6.666666666666695</v>
       </c>
       <c r="L549" t="n">
         <v>5.891000000000009</v>
@@ -28278,7 +28300,7 @@
         <v>20.62</v>
       </c>
       <c r="K550" t="n">
-        <v>-7.575757575757567</v>
+        <v>14.28571428571433</v>
       </c>
       <c r="L550" t="n">
         <v>5.895000000000008</v>
@@ -28329,7 +28351,7 @@
         <v>20.62</v>
       </c>
       <c r="K551" t="n">
-        <v>-0.8130081300812856</v>
+        <v>12.72727272727285</v>
       </c>
       <c r="L551" t="n">
         <v>5.903000000000008</v>
@@ -28380,7 +28402,7 @@
         <v>20.69</v>
       </c>
       <c r="K552" t="n">
-        <v>-2.400000000000027</v>
+        <v>-29.16666666666697</v>
       </c>
       <c r="L552" t="n">
         <v>5.903000000000007</v>
@@ -28431,7 +28453,7 @@
         <v>20.76000000000001</v>
       </c>
       <c r="K553" t="n">
-        <v>3.03030303030304</v>
+        <v>-11.11111111111122</v>
       </c>
       <c r="L553" t="n">
         <v>5.896000000000006</v>
@@ -28482,7 +28504,7 @@
         <v>20.87</v>
       </c>
       <c r="K554" t="n">
-        <v>-16.27906976744191</v>
+        <v>-26.15384615384634</v>
       </c>
       <c r="L554" t="n">
         <v>5.879000000000005</v>
@@ -28533,7 +28555,7 @@
         <v>20.96</v>
       </c>
       <c r="K555" t="n">
-        <v>-8.029197080291965</v>
+        <v>17.85714285714299</v>
       </c>
       <c r="L555" t="n">
         <v>5.871000000000005</v>
@@ -28584,7 +28606,7 @@
         <v>21.03</v>
       </c>
       <c r="K556" t="n">
-        <v>-2.325581395348864</v>
+        <v>13.79310344827591</v>
       </c>
       <c r="L556" t="n">
         <v>5.874000000000005</v>
@@ -28635,7 +28657,7 @@
         <v>21.03</v>
       </c>
       <c r="K557" t="n">
-        <v>-3.125000000000009</v>
+        <v>-21.95121951219508</v>
       </c>
       <c r="L557" t="n">
         <v>5.882000000000005</v>
@@ -28686,7 +28708,7 @@
         <v>21.04000000000001</v>
       </c>
       <c r="K558" t="n">
-        <v>-5.511811023622001</v>
+        <v>-23.80952380952363</v>
       </c>
       <c r="L558" t="n">
         <v>5.872000000000004</v>
@@ -28737,7 +28759,7 @@
         <v>21.13000000000001</v>
       </c>
       <c r="K559" t="n">
-        <v>-8.06451612903224</v>
+        <v>-1.960784313725442</v>
       </c>
       <c r="L559" t="n">
         <v>5.871000000000004</v>
@@ -28788,7 +28810,7 @@
         <v>21.13000000000001</v>
       </c>
       <c r="K560" t="n">
-        <v>2.702702702702727</v>
+        <v>-1.960784313725442</v>
       </c>
       <c r="L560" t="n">
         <v>5.870000000000003</v>
@@ -28839,7 +28861,7 @@
         <v>21.13000000000001</v>
       </c>
       <c r="K561" t="n">
-        <v>6.542056074766379</v>
+        <v>13.63636363636371</v>
       </c>
       <c r="L561" t="n">
         <v>5.869000000000002</v>
@@ -28890,7 +28912,7 @@
         <v>21.13000000000001</v>
       </c>
       <c r="K562" t="n">
-        <v>5.66037735849062</v>
+        <v>-2.702702702702638</v>
       </c>
       <c r="L562" t="n">
         <v>5.875000000000002</v>
@@ -28941,7 +28963,7 @@
         <v>21.13000000000001</v>
       </c>
       <c r="K563" t="n">
-        <v>-8.695652173913068</v>
+        <v>38.46153846153844</v>
       </c>
       <c r="L563" t="n">
         <v>5.874000000000002</v>
@@ -28992,7 +29014,7 @@
         <v>21.21000000000001</v>
       </c>
       <c r="K564" t="n">
-        <v>-15.15151515151516</v>
+        <v>-27.99999999999972</v>
       </c>
       <c r="L564" t="n">
         <v>5.876000000000002</v>
@@ -29043,7 +29065,7 @@
         <v>21.24000000000001</v>
       </c>
       <c r="K565" t="n">
-        <v>-17.64705882352942</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L565" t="n">
         <v>5.866000000000001</v>
@@ -29094,7 +29116,7 @@
         <v>21.24000000000001</v>
       </c>
       <c r="K566" t="n">
-        <v>0</v>
+        <v>-14.28571428571411</v>
       </c>
       <c r="L566" t="n">
         <v>5.863000000000002</v>
@@ -29145,7 +29167,7 @@
         <v>21.26000000000001</v>
       </c>
       <c r="K567" t="n">
-        <v>3.703703703703724</v>
+        <v>-18.181818181818</v>
       </c>
       <c r="L567" t="n">
         <v>5.858000000000002</v>
@@ -29196,7 +29218,7 @@
         <v>21.26000000000001</v>
       </c>
       <c r="K568" t="n">
-        <v>-21.87499999999981</v>
+        <v>-99.99999999999794</v>
       </c>
       <c r="L568" t="n">
         <v>5.854000000000003</v>
@@ -29247,7 +29269,7 @@
         <v>21.32000000000001</v>
       </c>
       <c r="K569" t="n">
-        <v>-28.57142857142848</v>
+        <v>-99.99999999999953</v>
       </c>
       <c r="L569" t="n">
         <v>5.835000000000004</v>
@@ -29298,7 +29320,7 @@
         <v>21.40000000000001</v>
       </c>
       <c r="K570" t="n">
-        <v>-15.38461538461538</v>
+        <v>-40.74074074074092</v>
       </c>
       <c r="L570" t="n">
         <v>5.824000000000003</v>
@@ -29349,7 +29371,7 @@
         <v>21.40000000000001</v>
       </c>
       <c r="K571" t="n">
-        <v>-15.38461538461538</v>
+        <v>-40.74074074074092</v>
       </c>
       <c r="L571" t="n">
         <v>5.813000000000004</v>
@@ -29400,7 +29422,7 @@
         <v>21.47000000000001</v>
       </c>
       <c r="K572" t="n">
-        <v>-15.38461538461526</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="L572" t="n">
         <v>5.795000000000004</v>
@@ -29451,7 +29473,7 @@
         <v>21.48</v>
       </c>
       <c r="K573" t="n">
-        <v>-25</v>
+        <v>-33.33333333333377</v>
       </c>
       <c r="L573" t="n">
         <v>5.778000000000004</v>
@@ -29502,7 +29524,7 @@
         <v>21.49</v>
       </c>
       <c r="K574" t="n">
-        <v>-12.90322580645153</v>
+        <v>-28.00000000000055</v>
       </c>
       <c r="L574" t="n">
         <v>5.768000000000005</v>
@@ -29553,7 +29575,7 @@
         <v>21.56</v>
       </c>
       <c r="K575" t="n">
-        <v>-16.66666666666682</v>
+        <v>0</v>
       </c>
       <c r="L575" t="n">
         <v>5.768000000000005</v>
@@ -29604,7 +29626,7 @@
         <v>21.57</v>
       </c>
       <c r="K576" t="n">
-        <v>-7.407407407407475</v>
+        <v>3.225806451612922</v>
       </c>
       <c r="L576" t="n">
         <v>5.767000000000005</v>
@@ -29655,7 +29677,7 @@
         <v>21.63</v>
       </c>
       <c r="K577" t="n">
-        <v>-16.66666666666677</v>
+        <v>-13.51351351351382</v>
       </c>
       <c r="L577" t="n">
         <v>5.762000000000005</v>
@@ -29706,7 +29728,7 @@
         <v>21.7</v>
       </c>
       <c r="K578" t="n">
-        <v>-3.030303030303132</v>
+        <v>21.05263157894784</v>
       </c>
       <c r="L578" t="n">
         <v>5.764000000000005</v>
@@ -29757,7 +29779,7 @@
         <v>21.7</v>
       </c>
       <c r="K579" t="n">
-        <v>-19.29824561403538</v>
+        <v>0</v>
       </c>
       <c r="L579" t="n">
         <v>5.772000000000004</v>
@@ -29808,7 +29830,7 @@
         <v>21.71</v>
       </c>
       <c r="K580" t="n">
-        <v>-20.689655172414</v>
+        <v>-3.225806451612884</v>
       </c>
       <c r="L580" t="n">
         <v>5.771000000000004</v>
@@ -29859,7 +29881,7 @@
         <v>21.71</v>
       </c>
       <c r="K581" t="n">
-        <v>-20.689655172414</v>
+        <v>25.00000000000037</v>
       </c>
       <c r="L581" t="n">
         <v>5.770000000000005</v>
@@ -29910,7 +29932,7 @@
         <v>21.75</v>
       </c>
       <c r="K582" t="n">
-        <v>-25.8064516129035</v>
+        <v>3.703703703703679</v>
       </c>
       <c r="L582" t="n">
         <v>5.772000000000004</v>
@@ -29961,7 +29983,7 @@
         <v>21.78</v>
       </c>
       <c r="K583" t="n">
-        <v>-20.00000000000014</v>
+        <v>17.24137931034482</v>
       </c>
       <c r="L583" t="n">
         <v>5.776000000000004</v>
@@ -30012,7 +30034,7 @@
         <v>21.81</v>
       </c>
       <c r="K584" t="n">
-        <v>-13.33333333333347</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L584" t="n">
         <v>5.778000000000004</v>
@@ -30063,7 +30085,7 @@
         <v>21.84</v>
       </c>
       <c r="K585" t="n">
-        <v>-3.333333333333294</v>
+        <v>-3.703703703703582</v>
       </c>
       <c r="L585" t="n">
         <v>5.776000000000005</v>
@@ -30114,7 +30136,7 @@
         <v>21.84</v>
       </c>
       <c r="K586" t="n">
-        <v>-3.333333333333294</v>
+        <v>23.80952380952322</v>
       </c>
       <c r="L586" t="n">
         <v>5.775000000000005</v>
@@ -30165,7 +30187,7 @@
         <v>21.88</v>
       </c>
       <c r="K587" t="n">
-        <v>-6.451612903225875</v>
+        <v>-33.33333333333251</v>
       </c>
       <c r="L587" t="n">
         <v>5.776000000000005</v>
@@ -30216,7 +30238,7 @@
         <v>21.93</v>
       </c>
       <c r="K588" t="n">
-        <v>1.492537313432816</v>
+        <v>-4.347826086956354</v>
       </c>
       <c r="L588" t="n">
         <v>5.775000000000005</v>
@@ -30267,7 +30289,7 @@
         <v>21.96</v>
       </c>
       <c r="K589" t="n">
-        <v>15.62500000000016</v>
+        <v>11.99999999999993</v>
       </c>
       <c r="L589" t="n">
         <v>5.777000000000005</v>
@@ -30318,7 +30340,7 @@
         <v>21.96</v>
       </c>
       <c r="K590" t="n">
-        <v>3.571428571428662</v>
+        <v>11.99999999999993</v>
       </c>
       <c r="L590" t="n">
         <v>5.780000000000006</v>
@@ -30369,7 +30391,7 @@
         <v>21.96</v>
       </c>
       <c r="K591" t="n">
-        <v>3.571428571428662</v>
+        <v>33.33333333333277</v>
       </c>
       <c r="L591" t="n">
         <v>5.783000000000006</v>
@@ -30420,7 +30442,7 @@
         <v>21.97000000000001</v>
       </c>
       <c r="K592" t="n">
-        <v>19.99999999999993</v>
+        <v>26.31578947368345</v>
       </c>
       <c r="L592" t="n">
         <v>5.791000000000006</v>
@@ -30471,7 +30493,7 @@
         <v>22.00000000000001</v>
       </c>
       <c r="K593" t="n">
-        <v>23.07692307692296</v>
+        <v>57.89473684210395</v>
       </c>
       <c r="L593" t="n">
         <v>5.799000000000005</v>
@@ -30522,7 +30544,7 @@
         <v>22.04000000000001</v>
       </c>
       <c r="K594" t="n">
-        <v>30.90909090909066</v>
+        <v>59.9999999999992</v>
       </c>
       <c r="L594" t="n">
         <v>5.814000000000005</v>
@@ -30573,7 +30595,7 @@
         <v>22.04000000000001</v>
       </c>
       <c r="K595" t="n">
-        <v>20.83333333333327</v>
+        <v>59.9999999999992</v>
       </c>
       <c r="L595" t="n">
         <v>5.826000000000005</v>
@@ -30624,7 +30646,7 @@
         <v>22.04000000000001</v>
       </c>
       <c r="K596" t="n">
-        <v>23.40425531914871</v>
+        <v>99.99999999999778</v>
       </c>
       <c r="L596" t="n">
         <v>5.838000000000005</v>
@@ -30675,7 +30697,7 @@
         <v>22.04000000000001</v>
       </c>
       <c r="K597" t="n">
-        <v>41.46341463414559</v>
+        <v>99.99999999999758</v>
       </c>
       <c r="L597" t="n">
         <v>5.854000000000005</v>
@@ -30726,7 +30748,7 @@
         <v>22.04000000000001</v>
       </c>
       <c r="K598" t="n">
-        <v>29.41176470588191</v>
+        <v>99.99999999999778</v>
       </c>
       <c r="L598" t="n">
         <v>5.865000000000006</v>
@@ -30777,7 +30799,7 @@
         <v>22.04000000000001</v>
       </c>
       <c r="K599" t="n">
-        <v>29.41176470588191</v>
+        <v>99.99999999999778</v>
       </c>
       <c r="L599" t="n">
         <v>5.873000000000006</v>
@@ -30828,7 +30850,7 @@
         <v>22.04000000000001</v>
       </c>
       <c r="K600" t="n">
-        <v>33.33333333333289</v>
+        <v>99.99999999999778</v>
       </c>
       <c r="L600" t="n">
         <v>5.881000000000006</v>
@@ -30879,7 +30901,7 @@
         <v>22.11000000000001</v>
       </c>
       <c r="K601" t="n">
-        <v>9.999999999999867</v>
+        <v>0</v>
       </c>
       <c r="L601" t="n">
         <v>5.882000000000006</v>
@@ -30930,7 +30952,7 @@
         <v>22.17000000000001</v>
       </c>
       <c r="K602" t="n">
-        <v>33.33333333333284</v>
+        <v>17.64705882352923</v>
       </c>
       <c r="L602" t="n">
         <v>5.888000000000005</v>
@@ -30981,7 +31003,7 @@
         <v>22.17000000000001</v>
       </c>
       <c r="K603" t="n">
-        <v>28.20512820512776</v>
+        <v>-7.69230769230827</v>
       </c>
       <c r="L603" t="n">
         <v>5.891000000000005</v>
@@ -31032,7 +31054,7 @@
         <v>22.18000000000001</v>
       </c>
       <c r="K604" t="n">
-        <v>40.54054054054014</v>
+        <v>0</v>
       </c>
       <c r="L604" t="n">
         <v>5.891000000000006</v>
@@ -31083,7 +31105,7 @@
         <v>22.18000000000001</v>
       </c>
       <c r="K605" t="n">
-        <v>35.2941176470585</v>
+        <v>0</v>
       </c>
       <c r="L605" t="n">
         <v>5.891000000000006</v>
@@ -31134,7 +31156,7 @@
         <v>22.18000000000001</v>
       </c>
       <c r="K606" t="n">
-        <v>35.2941176470585</v>
+        <v>0</v>
       </c>
       <c r="L606" t="n">
         <v>5.891000000000006</v>
@@ -31185,7 +31207,7 @@
         <v>22.18000000000001</v>
       </c>
       <c r="K607" t="n">
-        <v>53.33333333333263</v>
+        <v>0</v>
       </c>
       <c r="L607" t="n">
         <v>5.891000000000006</v>
@@ -31236,7 +31258,7 @@
         <v>22.19000000000001</v>
       </c>
       <c r="K608" t="n">
-        <v>38.46153846153757</v>
+        <v>-6.666666666667022</v>
       </c>
       <c r="L608" t="n">
         <v>5.890000000000006</v>
@@ -31287,7 +31309,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K609" t="n">
-        <v>33.33333333333259</v>
+        <v>0</v>
       </c>
       <c r="L609" t="n">
         <v>5.890000000000006</v>
@@ -31338,7 +31360,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K610" t="n">
-        <v>33.33333333333259</v>
+        <v>77.77777777777514</v>
       </c>
       <c r="L610" t="n">
         <v>5.890000000000006</v>
@@ -31389,7 +31411,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K611" t="n">
-        <v>33.33333333333259</v>
+        <v>33.33333333333037</v>
       </c>
       <c r="L611" t="n">
         <v>5.897000000000006</v>
@@ -31440,7 +31462,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K612" t="n">
-        <v>30.43478260869525</v>
+        <v>33.33333333333037</v>
       </c>
       <c r="L612" t="n">
         <v>5.898000000000006</v>
@@ -31491,7 +31513,7 @@
         <v>22.20000000000001</v>
       </c>
       <c r="K613" t="n">
-        <v>19.99999999999973</v>
+        <v>0</v>
       </c>
       <c r="L613" t="n">
         <v>5.899000000000006</v>

--- a/BackTest/2019-10-17 BackTest FAB.xlsx
+++ b/BackTest/2019-10-17 BackTest FAB.xlsx
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
@@ -12004,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="I332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
       <c r="I333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
@@ -12074,7 +12074,7 @@
         <v>0</v>
       </c>
       <c r="I334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="I335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
@@ -12144,7 +12144,7 @@
         <v>0</v>
       </c>
       <c r="I336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
@@ -14311,14 +14311,20 @@
         <v>6.039666666666667</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
       </c>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>5.81</v>
+      </c>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14346,14 +14352,20 @@
         <v>6.036</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
       </c>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>5.81</v>
+      </c>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14381,14 +14393,20 @@
         <v>6.032500000000001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
       </c>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>5.9</v>
+      </c>
       <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14416,14 +14434,20 @@
         <v>6.028166666666667</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
       </c>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>5.91</v>
+      </c>
       <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -14451,14 +14475,20 @@
         <v>6.024666666666668</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
       </c>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>5.91</v>
+      </c>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -14486,14 +14516,20 @@
         <v>6.022333333333335</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
       </c>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -14521,14 +14557,20 @@
         <v>6.019166666666668</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
       </c>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>5.97</v>
+      </c>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -14563,7 +14605,11 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -14598,7 +14644,11 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -14633,7 +14683,11 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -14668,7 +14722,11 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -14703,7 +14761,11 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -14738,7 +14800,11 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -14773,7 +14839,11 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -14808,7 +14878,11 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -14843,7 +14917,11 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -14878,7 +14956,11 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -14913,7 +14995,11 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -14948,7 +15034,11 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -14983,7 +15073,11 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15018,7 +15112,11 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15053,7 +15151,11 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15088,7 +15190,11 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15123,7 +15229,11 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15158,7 +15268,11 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15193,7 +15307,11 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15228,7 +15346,11 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15263,7 +15385,11 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15298,7 +15424,11 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +15463,11 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15368,7 +15502,11 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15403,7 +15541,11 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15438,7 +15580,11 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -15473,7 +15619,11 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -15508,7 +15658,11 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -15543,7 +15697,11 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -15578,7 +15736,11 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -15613,7 +15775,11 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -15648,7 +15814,11 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -15683,7 +15853,11 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -15718,7 +15892,11 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -15753,7 +15931,11 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -15788,7 +15970,11 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -15823,7 +16009,11 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -15858,7 +16048,11 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -15893,7 +16087,11 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -15928,7 +16126,11 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -15963,7 +16165,11 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -15998,7 +16204,11 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16033,7 +16243,11 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16068,7 +16282,11 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16103,7 +16321,11 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16138,7 +16360,11 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16173,7 +16399,11 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16208,7 +16438,11 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -16243,7 +16477,11 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -16278,7 +16516,11 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -16313,7 +16555,11 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -16348,7 +16594,11 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16383,7 +16633,11 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16418,7 +16672,11 @@
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -16453,7 +16711,11 @@
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16488,7 +16750,11 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16523,7 +16789,11 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -16558,7 +16828,11 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16593,7 +16867,11 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16628,7 +16906,11 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -16663,7 +16945,11 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16698,7 +16984,11 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -16733,7 +17023,11 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -16768,7 +17062,11 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -16803,7 +17101,11 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -16838,7 +17140,11 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -16873,7 +17179,11 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -16908,7 +17218,11 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -16943,7 +17257,11 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -16978,7 +17296,11 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -17013,7 +17335,11 @@
       </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -17048,7 +17374,11 @@
       </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -17083,7 +17413,11 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -17118,7 +17452,11 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -17153,7 +17491,11 @@
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -17188,7 +17530,11 @@
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -17223,7 +17569,11 @@
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -17258,7 +17608,11 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -17293,7 +17647,11 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -17328,7 +17686,11 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -17363,7 +17725,11 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -17398,7 +17764,11 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -17433,7 +17803,11 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -17468,7 +17842,11 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -17503,7 +17881,11 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -17538,7 +17920,11 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -17573,7 +17959,11 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -17608,7 +17998,11 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -17643,7 +18037,11 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -17678,7 +18076,11 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -17713,7 +18115,11 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17748,7 +18154,11 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17783,7 +18193,11 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -17818,7 +18232,11 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -17853,7 +18271,11 @@
       </c>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -17888,7 +18310,11 @@
       </c>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -17923,7 +18349,11 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -17958,7 +18388,11 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -17993,7 +18427,11 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -18028,7 +18466,11 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -18063,7 +18505,11 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -18098,7 +18544,11 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -18133,7 +18583,11 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -18168,7 +18622,11 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -18203,7 +18661,11 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -18238,7 +18700,11 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -18273,7 +18739,11 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -18308,7 +18778,11 @@
       </c>
       <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -18343,7 +18817,11 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -18378,7 +18856,11 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -18413,7 +18895,11 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -18448,7 +18934,11 @@
       </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -18483,7 +18973,11 @@
       </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -18518,7 +19012,11 @@
       </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -18553,7 +19051,11 @@
       </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -18588,7 +19090,11 @@
       </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -18623,7 +19129,11 @@
       </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -18658,7 +19168,11 @@
       </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -18693,7 +19207,11 @@
       </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18728,7 +19246,11 @@
       </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -18763,7 +19285,11 @@
       </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -18798,7 +19324,11 @@
       </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -18833,7 +19363,11 @@
       </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -18868,7 +19402,11 @@
       </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -18903,7 +19441,11 @@
       </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -18938,7 +19480,11 @@
       </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -18973,7 +19519,11 @@
       </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -19008,7 +19558,11 @@
       </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -19043,7 +19597,11 @@
       </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -19078,7 +19636,11 @@
       </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -19113,7 +19675,11 @@
       </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -19148,7 +19714,11 @@
       </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -19183,7 +19753,11 @@
       </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M537" t="n">
         <v>1</v>
       </c>
@@ -19218,7 +19792,11 @@
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
-      <c r="L538" t="inlineStr"/>
+      <c r="L538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M538" t="n">
         <v>1</v>
       </c>
@@ -19253,7 +19831,11 @@
       </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
-      <c r="L539" t="inlineStr"/>
+      <c r="L539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M539" t="n">
         <v>1</v>
       </c>
@@ -19288,7 +19870,11 @@
       </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr"/>
-      <c r="L540" t="inlineStr"/>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M540" t="n">
         <v>1</v>
       </c>
@@ -19323,7 +19909,11 @@
       </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr"/>
-      <c r="L541" t="inlineStr"/>
+      <c r="L541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M541" t="n">
         <v>1</v>
       </c>
@@ -19358,7 +19948,11 @@
       </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr"/>
-      <c r="L542" t="inlineStr"/>
+      <c r="L542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M542" t="n">
         <v>1</v>
       </c>
@@ -19393,7 +19987,11 @@
       </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr"/>
-      <c r="L543" t="inlineStr"/>
+      <c r="L543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M543" t="n">
         <v>1</v>
       </c>
@@ -19428,7 +20026,11 @@
       </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr"/>
-      <c r="L544" t="inlineStr"/>
+      <c r="L544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M544" t="n">
         <v>1</v>
       </c>
@@ -19463,7 +20065,11 @@
       </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr"/>
-      <c r="L545" t="inlineStr"/>
+      <c r="L545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M545" t="n">
         <v>1</v>
       </c>
@@ -19498,7 +20104,11 @@
       </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr"/>
-      <c r="L546" t="inlineStr"/>
+      <c r="L546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M546" t="n">
         <v>1</v>
       </c>
@@ -19533,7 +20143,11 @@
       </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr"/>
-      <c r="L547" t="inlineStr"/>
+      <c r="L547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M547" t="n">
         <v>1</v>
       </c>
@@ -19568,7 +20182,11 @@
       </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr"/>
-      <c r="L548" t="inlineStr"/>
+      <c r="L548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M548" t="n">
         <v>1</v>
       </c>
@@ -19603,7 +20221,11 @@
       </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
-      <c r="L549" t="inlineStr"/>
+      <c r="L549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M549" t="n">
         <v>1</v>
       </c>
@@ -19638,7 +20260,11 @@
       </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr"/>
-      <c r="L550" t="inlineStr"/>
+      <c r="L550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M550" t="n">
         <v>1</v>
       </c>
@@ -19673,7 +20299,11 @@
       </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
+      <c r="L551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M551" t="n">
         <v>1</v>
       </c>
@@ -19708,7 +20338,11 @@
       </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
-      <c r="L552" t="inlineStr"/>
+      <c r="L552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M552" t="n">
         <v>1</v>
       </c>
@@ -19743,7 +20377,11 @@
       </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr"/>
-      <c r="L553" t="inlineStr"/>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M553" t="n">
         <v>1</v>
       </c>
@@ -19778,7 +20416,11 @@
       </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
-      <c r="L554" t="inlineStr"/>
+      <c r="L554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M554" t="n">
         <v>1</v>
       </c>
@@ -19813,7 +20455,11 @@
       </c>
       <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
-      <c r="L555" t="inlineStr"/>
+      <c r="L555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M555" t="n">
         <v>1</v>
       </c>
@@ -19848,7 +20494,11 @@
       </c>
       <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr"/>
-      <c r="L556" t="inlineStr"/>
+      <c r="L556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M556" t="n">
         <v>1</v>
       </c>
@@ -19883,7 +20533,11 @@
       </c>
       <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr"/>
-      <c r="L557" t="inlineStr"/>
+      <c r="L557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M557" t="n">
         <v>1</v>
       </c>
@@ -19918,7 +20572,11 @@
       </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr"/>
-      <c r="L558" t="inlineStr"/>
+      <c r="L558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M558" t="n">
         <v>1</v>
       </c>
@@ -19953,7 +20611,11 @@
       </c>
       <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr"/>
-      <c r="L559" t="inlineStr"/>
+      <c r="L559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M559" t="n">
         <v>1</v>
       </c>
@@ -19988,7 +20650,11 @@
       </c>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr"/>
-      <c r="L560" t="inlineStr"/>
+      <c r="L560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M560" t="n">
         <v>1</v>
       </c>
@@ -20023,7 +20689,11 @@
       </c>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr"/>
-      <c r="L561" t="inlineStr"/>
+      <c r="L561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M561" t="n">
         <v>1</v>
       </c>
@@ -20058,7 +20728,11 @@
       </c>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr"/>
-      <c r="L562" t="inlineStr"/>
+      <c r="L562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M562" t="n">
         <v>1</v>
       </c>
@@ -20093,7 +20767,11 @@
       </c>
       <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
-      <c r="L563" t="inlineStr"/>
+      <c r="L563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M563" t="n">
         <v>1</v>
       </c>
@@ -20128,7 +20806,11 @@
       </c>
       <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr"/>
-      <c r="L564" t="inlineStr"/>
+      <c r="L564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M564" t="n">
         <v>1</v>
       </c>
@@ -20163,7 +20845,11 @@
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
-      <c r="L565" t="inlineStr"/>
+      <c r="L565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M565" t="n">
         <v>1</v>
       </c>
@@ -20198,7 +20884,11 @@
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
-      <c r="L566" t="inlineStr"/>
+      <c r="L566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M566" t="n">
         <v>1</v>
       </c>
@@ -20233,7 +20923,11 @@
       </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr"/>
-      <c r="L567" t="inlineStr"/>
+      <c r="L567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M567" t="n">
         <v>1</v>
       </c>
@@ -20268,7 +20962,11 @@
       </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr"/>
-      <c r="L568" t="inlineStr"/>
+      <c r="L568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M568" t="n">
         <v>1</v>
       </c>
@@ -20303,7 +21001,11 @@
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
-      <c r="L569" t="inlineStr"/>
+      <c r="L569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M569" t="n">
         <v>1</v>
       </c>
@@ -20338,7 +21040,11 @@
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
-      <c r="L570" t="inlineStr"/>
+      <c r="L570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M570" t="n">
         <v>1</v>
       </c>
@@ -20366,18 +21072,16 @@
         <v>5.940166666666666</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
       </c>
-      <c r="J571" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M571" t="n">
@@ -20407,14 +21111,12 @@
         <v>5.933666666666666</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
       </c>
-      <c r="J572" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
@@ -20448,14 +21150,12 @@
         <v>5.927166666666666</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
       </c>
-      <c r="J573" t="n">
-        <v>5.75</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
@@ -20489,14 +21189,12 @@
         <v>5.920500000000001</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
       </c>
-      <c r="J574" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
@@ -20530,14 +21228,12 @@
         <v>5.915166666666667</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
       </c>
-      <c r="J575" t="n">
-        <v>5.73</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
@@ -20577,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="J576" t="n">
-        <v>5.79</v>
+        <v>5.8</v>
       </c>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
@@ -20618,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="J577" t="n">
-        <v>5.73</v>
+        <v>5.79</v>
       </c>
       <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
@@ -20659,7 +21355,7 @@
         <v>0</v>
       </c>
       <c r="J578" t="n">
-        <v>5.8</v>
+        <v>5.73</v>
       </c>
       <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
@@ -20694,14 +21390,12 @@
         <v>5.892500000000001</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
       </c>
-      <c r="J579" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="inlineStr">
         <is>
@@ -20735,14 +21429,12 @@
         <v>5.886833333333334</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
       </c>
-      <c r="J580" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="inlineStr">
         <is>
@@ -20776,14 +21468,12 @@
         <v>5.882000000000002</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
       </c>
-      <c r="J581" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
       <c r="L581" t="inlineStr">
         <is>
@@ -20817,14 +21507,12 @@
         <v>5.877166666666668</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
       </c>
-      <c r="J582" t="n">
-        <v>5.75</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr"/>
       <c r="L582" t="inlineStr">
         <is>
@@ -20858,14 +21546,12 @@
         <v>5.873166666666668</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
       </c>
-      <c r="J583" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr"/>
       <c r="L583" t="inlineStr">
         <is>
@@ -20899,14 +21585,12 @@
         <v>5.867166666666668</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
       </c>
-      <c r="J584" t="n">
-        <v>5.75</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="inlineStr">
         <is>
@@ -20940,14 +21624,12 @@
         <v>5.863000000000001</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
       </c>
-      <c r="J585" t="n">
-        <v>5.74</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="inlineStr">
         <is>
@@ -20981,14 +21663,12 @@
         <v>5.859000000000001</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
       </c>
-      <c r="J586" t="n">
-        <v>5.78</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr"/>
       <c r="L586" t="inlineStr">
         <is>
@@ -21022,14 +21702,12 @@
         <v>5.854333333333335</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
       </c>
-      <c r="J587" t="n">
-        <v>5.77</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="inlineStr">
         <is>
@@ -21063,14 +21741,12 @@
         <v>5.850500000000002</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
       </c>
-      <c r="J588" t="n">
-        <v>5.75</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr"/>
       <c r="L588" t="inlineStr">
         <is>
@@ -21104,14 +21780,12 @@
         <v>5.847166666666669</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
       </c>
-      <c r="J589" t="n">
-        <v>5.79</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr"/>
       <c r="L589" t="inlineStr">
         <is>
@@ -21145,14 +21819,12 @@
         <v>5.843833333333336</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
       </c>
-      <c r="J590" t="n">
-        <v>5.82</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr"/>
       <c r="L590" t="inlineStr">
         <is>
@@ -21186,14 +21858,12 @@
         <v>5.842000000000002</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="n">
-        <v>5.82</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr"/>
       <c r="L591" t="inlineStr">
         <is>
@@ -21227,14 +21897,12 @@
         <v>5.841166666666669</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="n">
-        <v>5.83</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr"/>
       <c r="L592" t="inlineStr">
         <is>

--- a/BackTest/2019-10-17 BackTest FAB.xlsx
+++ b/BackTest/2019-10-17 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>2440265.899456383</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.32</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>3017046.737256383</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>3749463.944956383</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>4634770.467256383</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +766,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +805,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +841,17 @@
         <v>5810078.693856383</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +880,17 @@
         <v>5688633.244356383</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,17 @@
         <v>5124160.031656383</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +961,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +997,17 @@
         <v>5394544.149256382</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1039,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1078,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1015,8 +1117,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1048,8 +1156,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1195,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1234,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1273,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1312,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1348,17 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1387,17 @@
         <v>4667215.380156383</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1426,17 @@
         <v>4667215.380156383</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1468,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1507,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1546,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1585,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1624,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1663,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1702,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1738,17 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,13 +1777,19 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>1.036139240506329</v>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1606,7 +1816,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1849,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1882,7 @@
         <v>4937822.307156382</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1915,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1948,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1981,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +2014,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +2047,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +2080,7 @@
         <v>4916945.573156382</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2113,7 @@
         <v>4729757.190456382</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2146,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2179,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2212,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2245,7 @@
         <v>5449771.189256382</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2278,7 @@
         <v>4949640.772656382</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2311,7 @@
         <v>4949640.772656382</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2344,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2377,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2410,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2443,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2476,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2509,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2542,7 @@
         <v>4616074.820016042</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2575,7 @@
         <v>4585618.237216042</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2608,7 @@
         <v>4578952.237216042</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2641,7 @@
         <v>4578901.287216042</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2674,7 @@
         <v>4583452.240616042</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2707,7 @@
         <v>4374708.863816042</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2740,7 @@
         <v>4374814.813816043</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2773,7 @@
         <v>4212994.831316043</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2806,7 @@
         <v>4212994.831316043</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -6292,11 +6502,17 @@
         <v>4982242.142012347</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>6.08</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6329,7 +6545,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,11 +6578,17 @@
         <v>5010873.084412347</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>6.09</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6395,7 +6621,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6428,7 +6658,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6461,7 +6695,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6494,7 +6732,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6527,7 +6769,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6560,7 +6806,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6593,7 +6843,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6626,7 +6880,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,7 +6917,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6692,7 +6954,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6725,7 +6991,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7028,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6791,7 +7065,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6824,7 +7102,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6857,7 +7139,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6890,7 +7176,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6923,7 +7213,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6956,7 +7250,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6989,7 +7287,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7022,7 +7324,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7055,7 +7361,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7088,7 +7398,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7121,7 +7435,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7154,7 +7472,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7187,7 +7509,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +7542,15 @@
         <v>11803953.24682537</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +7579,15 @@
         <v>11683233.26792537</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +7616,15 @@
         <v>11652276.17042537</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7653,15 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +7690,15 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +7727,15 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7418,7 +7768,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7451,7 +7805,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7484,7 +7842,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7517,7 +7879,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7550,7 +7916,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7583,7 +7953,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7616,7 +7990,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7649,7 +8027,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7682,7 +8064,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7715,7 +8101,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7748,7 +8138,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7781,7 +8175,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,14 +8208,16 @@
         <v>12044015.34302205</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
@@ -7843,7 +8243,7 @@
         <v>12044015.34302205</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +8276,7 @@
         <v>11977681.24062205</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +8309,7 @@
         <v>11977681.24062205</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +8342,7 @@
         <v>11976852.78902205</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +8375,7 @@
         <v>12079608.90282205</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8408,7 @@
         <v>12079608.90282205</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8441,7 @@
         <v>12004460.28232205</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8474,7 @@
         <v>12004471.28232205</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8507,7 @@
         <v>11999205.25572205</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8540,7 @@
         <v>12217452.46082205</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8573,7 @@
         <v>12217412.51082205</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8503,7 +8903,7 @@
         <v>12000595.96572205</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8936,7 @@
         <v>12000595.96572205</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8969,7 @@
         <v>11916886.91652205</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +9002,7 @@
         <v>12021298.85372205</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +9035,7 @@
         <v>11942456.32572205</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +9068,7 @@
         <v>11942497.32572205</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +9101,7 @@
         <v>11922196.29742205</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +9134,7 @@
         <v>11922206.29742205</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +9167,7 @@
         <v>11913835.29742205</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +9200,7 @@
         <v>9738773.677722054</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +9233,7 @@
         <v>9738783.677722054</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +9266,7 @@
         <v>8888290.163022054</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8932,7 +9332,7 @@
         <v>8864315.45774759</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9365,7 @@
         <v>8492307.79864759</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -11506,14 +11906,10 @@
         <v>7639346.802947588</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J337" t="n">
-        <v>6.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
@@ -11546,14 +11942,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11582,19 +11972,11 @@
         <v>7639346.802947588</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
-      </c>
-      <c r="I339" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="J339" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11626,14 +12008,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11662,19 +12038,11 @@
         <v>7638346.802947588</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
-      </c>
-      <c r="I341" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="J341" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11703,19 +12071,11 @@
         <v>7654907.198247588</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
-      </c>
-      <c r="I342" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="J342" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11747,14 +12107,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11786,14 +12140,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11825,14 +12173,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11864,14 +12206,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11903,14 +12239,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11942,14 +12272,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11981,14 +12305,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12020,14 +12338,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12059,14 +12371,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12098,14 +12404,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12137,14 +12437,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12176,14 +12470,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12215,14 +12503,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12254,14 +12536,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12293,14 +12569,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12332,14 +12602,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12371,14 +12635,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12410,14 +12668,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12449,14 +12701,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12488,14 +12734,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12527,14 +12767,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12566,14 +12800,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12605,14 +12833,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12644,14 +12866,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12683,14 +12899,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12722,14 +12932,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12761,14 +12965,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12800,14 +12998,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12839,14 +13031,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12878,14 +13064,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12917,14 +13097,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12956,14 +13130,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12995,14 +13163,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13034,14 +13196,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13073,14 +13229,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13112,14 +13262,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13151,14 +13295,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13190,14 +13328,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13229,14 +13361,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13268,14 +13394,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13307,14 +13427,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13346,14 +13460,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13385,14 +13493,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13421,19 +13523,13 @@
         <v>9335048.156781638</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
-        <v>1.039850498338871</v>
+        <v>1</v>
       </c>
       <c r="M386" t="inlineStr"/>
     </row>
@@ -13460,7 +13556,7 @@
         <v>10836591.42150881</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13526,7 +13622,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13559,7 +13655,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13625,7 +13721,7 @@
         <v>10825944.47417391</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13658,7 +13754,7 @@
         <v>10814471.78067392</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13691,7 +13787,7 @@
         <v>10788895.23687392</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13724,7 +13820,7 @@
         <v>10787981.80647391</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14120,7 +14216,7 @@
         <v>10742775.22547391</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14153,7 +14249,7 @@
         <v>10778200.6862509</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14186,7 +14282,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14219,7 +14315,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14252,7 +14348,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14285,7 +14381,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14351,7 +14447,7 @@
         <v>10644381.5515509</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14450,7 +14546,7 @@
         <v>10512862.2210509</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14483,7 +14579,7 @@
         <v>10458357.3543509</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14516,7 +14612,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14549,7 +14645,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14582,7 +14678,7 @@
         <v>10447628.2046509</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14615,7 +14711,7 @@
         <v>10355930.7707509</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -19136,7 +19232,7 @@
         <v>9173817.394674342</v>
       </c>
       <c r="H559" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19334,7 +19430,7 @@
         <v>9182232.950474342</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19367,7 +19463,7 @@
         <v>9182232.950474342</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19400,7 +19496,7 @@
         <v>9172232.950474342</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -22007,514 +22103,506 @@
         <v>7636476.060674342</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
-      </c>
-      <c r="I646" t="n">
-        <v>5.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr">
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="C647" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="D647" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="E647" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="F647" t="n">
+        <v>75421.06630000001</v>
+      </c>
+      <c r="G647" t="n">
+        <v>7711897.126974342</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="C648" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D648" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E648" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F648" t="n">
+        <v>17786</v>
+      </c>
+      <c r="G648" t="n">
+        <v>7729683.126974342</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C649" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D649" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E649" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F649" t="n">
+        <v>10</v>
+      </c>
+      <c r="G649" t="n">
+        <v>7729683.126974342</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="C650" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="D650" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="E650" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="F650" t="n">
+        <v>10008.2249</v>
+      </c>
+      <c r="G650" t="n">
+        <v>7729683.126974342</v>
+      </c>
+      <c r="H650" t="n">
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J650" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="C651" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="D651" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="E651" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="F651" t="n">
+        <v>10</v>
+      </c>
+      <c r="G651" t="n">
+        <v>7729693.126974342</v>
+      </c>
+      <c r="H651" t="n">
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J651" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C652" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="D652" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="E652" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F652" t="n">
+        <v>30</v>
+      </c>
+      <c r="G652" t="n">
+        <v>7729723.126974342</v>
+      </c>
+      <c r="H652" t="n">
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="J652" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="C653" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D653" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E653" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F653" t="n">
+        <v>40</v>
+      </c>
+      <c r="G653" t="n">
+        <v>7729763.126974342</v>
+      </c>
+      <c r="H653" t="n">
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="J653" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C654" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D654" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E654" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F654" t="n">
+        <v>20</v>
+      </c>
+      <c r="G654" t="n">
+        <v>7729763.126974342</v>
+      </c>
+      <c r="H654" t="n">
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J654" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="C655" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D655" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E655" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="F655" t="n">
+        <v>18460.8474</v>
+      </c>
+      <c r="G655" t="n">
+        <v>7729763.126974342</v>
+      </c>
+      <c r="H655" t="n">
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J655" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C656" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D656" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E656" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F656" t="n">
+        <v>10062.2457</v>
+      </c>
+      <c r="G656" t="n">
+        <v>7729763.126974342</v>
+      </c>
+      <c r="H656" t="n">
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J656" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C657" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D657" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E657" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F657" t="n">
+        <v>10</v>
+      </c>
+      <c r="G657" t="n">
+        <v>7729763.126974342</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C658" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D658" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E658" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F658" t="n">
+        <v>10</v>
+      </c>
+      <c r="G658" t="n">
+        <v>7729763.126974342</v>
+      </c>
+      <c r="H658" t="n">
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J658" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L658" t="n">
+        <v>1</v>
+      </c>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C659" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D659" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E659" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F659" t="n">
+        <v>33057.175</v>
+      </c>
+      <c r="G659" t="n">
+        <v>7729763.126974342</v>
+      </c>
+      <c r="H659" t="n">
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J659" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="K659" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="C647" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="D647" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="E647" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="F647" t="n">
-        <v>75421.06630000001</v>
-      </c>
-      <c r="G647" t="n">
-        <v>7711897.126974342</v>
-      </c>
-      <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="C648" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="D648" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E648" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F648" t="n">
-        <v>17786</v>
-      </c>
-      <c r="G648" t="n">
-        <v>7729683.126974342</v>
-      </c>
-      <c r="H648" t="n">
-        <v>2</v>
-      </c>
-      <c r="I648" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C649" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="D649" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E649" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F649" t="n">
-        <v>10</v>
-      </c>
-      <c r="G649" t="n">
-        <v>7729683.126974342</v>
-      </c>
-      <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="C650" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="D650" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="E650" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="F650" t="n">
-        <v>10008.2249</v>
-      </c>
-      <c r="G650" t="n">
-        <v>7729683.126974342</v>
-      </c>
-      <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="C651" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="D651" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="E651" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="F651" t="n">
-        <v>10</v>
-      </c>
-      <c r="G651" t="n">
-        <v>7729693.126974342</v>
-      </c>
-      <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C652" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="D652" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="E652" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F652" t="n">
-        <v>30</v>
-      </c>
-      <c r="G652" t="n">
-        <v>7729723.126974342</v>
-      </c>
-      <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="C653" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D653" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E653" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="F653" t="n">
-        <v>40</v>
-      </c>
-      <c r="G653" t="n">
-        <v>7729763.126974342</v>
-      </c>
-      <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C654" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D654" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E654" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F654" t="n">
-        <v>20</v>
-      </c>
-      <c r="G654" t="n">
-        <v>7729763.126974342</v>
-      </c>
-      <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="C655" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D655" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E655" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="F655" t="n">
-        <v>18460.8474</v>
-      </c>
-      <c r="G655" t="n">
-        <v>7729763.126974342</v>
-      </c>
-      <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C656" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D656" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E656" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F656" t="n">
-        <v>10062.2457</v>
-      </c>
-      <c r="G656" t="n">
-        <v>7729763.126974342</v>
-      </c>
-      <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C657" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D657" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E657" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F657" t="n">
-        <v>10</v>
-      </c>
-      <c r="G657" t="n">
-        <v>7729763.126974342</v>
-      </c>
-      <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="C658" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D658" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E658" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F658" t="n">
-        <v>10</v>
-      </c>
-      <c r="G658" t="n">
-        <v>7729763.126974342</v>
-      </c>
-      <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L658" t="n">
-        <v>1</v>
-      </c>
-      <c r="M658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="C659" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="D659" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="E659" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="F659" t="n">
-        <v>33057.175</v>
-      </c>
-      <c r="G659" t="n">
-        <v>7729763.126974342</v>
-      </c>
-      <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22543,10 +22631,14 @@
         <v>7507277.204274342</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J660" t="n">
+        <v>5.9</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22580,12 +22672,14 @@
         <v>7527298.128874342</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I661" t="n">
         <v>5.83</v>
       </c>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>5.9</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22597,6 +22691,6 @@
       <c r="M661" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest FAB.xlsx
+++ b/BackTest/2019-10-17 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="J5" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>2440265.899456383</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="J6" t="n">
-        <v>6.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>3017046.737256383</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>3749463.944956383</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -722,19 +682,11 @@
         <v>4634770.467256383</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -766,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -805,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -844,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -883,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -922,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -961,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1000,14 +916,8 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1039,14 +949,8 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1078,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1117,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1156,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1195,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1234,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1273,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1312,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1351,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1390,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1429,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1468,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1507,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1546,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1585,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1624,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1663,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1702,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1741,14 +1543,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1777,19 +1573,13 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.036139240506329</v>
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr"/>
     </row>
@@ -1816,7 +1606,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1849,7 +1639,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1882,7 +1672,7 @@
         <v>4937822.307156382</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1915,7 +1705,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1948,7 +1738,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1981,7 +1771,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2014,7 +1804,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -2047,7 +1837,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2080,7 +1870,7 @@
         <v>4916945.573156382</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2113,7 +1903,7 @@
         <v>4729757.190456382</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2146,7 +1936,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2179,7 +1969,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2212,7 +2002,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2245,7 +2035,7 @@
         <v>5449771.189256382</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2278,7 +2068,7 @@
         <v>4949640.772656382</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2311,7 +2101,7 @@
         <v>4949640.772656382</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2344,7 +2134,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2377,7 +2167,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2410,7 +2200,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2443,7 +2233,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2476,7 +2266,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2509,7 +2299,7 @@
         <v>4953586.528916042</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2542,7 +2332,7 @@
         <v>4616074.820016042</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2575,7 +2365,7 @@
         <v>4585618.237216042</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2608,7 +2398,7 @@
         <v>4578952.237216042</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2641,7 +2431,7 @@
         <v>4578901.287216042</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2674,7 +2464,7 @@
         <v>4583452.240616042</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2707,7 +2497,7 @@
         <v>4374708.863816042</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2740,7 +2530,7 @@
         <v>4374814.813816043</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2773,7 +2563,7 @@
         <v>4212994.831316043</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2806,7 +2596,7 @@
         <v>4212994.831316043</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3367,10 +3157,14 @@
         <v>5109355.11771604</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6.1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3400,11 +3194,19 @@
         <v>5057228.347816041</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3436,8 +3238,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3466,10 +3274,14 @@
         <v>5053903.929616041</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="J87" t="n">
+        <v>6.22</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3499,11 +3311,19 @@
         <v>5053892.929616041</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3532,11 +3352,19 @@
         <v>5053881.929616041</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3598,10 +3426,14 @@
         <v>5180490.24231604</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="J91" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3631,11 +3463,19 @@
         <v>5180490.24231604</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J92" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3664,11 +3504,19 @@
         <v>5042655.69681604</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3697,11 +3545,19 @@
         <v>5042666.69681604</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3730,11 +3586,19 @@
         <v>5042604.74681604</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3766,8 +3630,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3796,11 +3666,19 @@
         <v>5042604.74681604</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="J97" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3832,8 +3710,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3865,8 +3749,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3898,8 +3788,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3928,11 +3824,19 @@
         <v>4990254.71181604</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="J101" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3964,8 +3868,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3997,8 +3907,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4030,8 +3946,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4063,8 +3985,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4096,8 +4024,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4126,11 +4060,19 @@
         <v>4606249.91941604</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="J107" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4159,11 +4101,19 @@
         <v>5598473.91441604</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="J108" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4195,8 +4145,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4228,8 +4184,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4261,8 +4223,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4294,8 +4262,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4327,8 +4301,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4360,8 +4340,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4393,8 +4379,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4426,8 +4418,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4459,8 +4457,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4492,8 +4496,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4525,8 +4535,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4558,8 +4574,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4591,8 +4613,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +4652,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +4691,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4690,8 +4730,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4723,8 +4769,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4756,8 +4808,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4789,8 +4847,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4822,8 +4886,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4855,8 +4925,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4888,8 +4964,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4921,8 +5003,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4954,8 +5042,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4987,8 +5081,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5020,8 +5120,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5053,8 +5159,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5086,8 +5198,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5119,8 +5237,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5152,8 +5276,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5185,8 +5315,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5218,8 +5354,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5251,8 +5393,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5284,8 +5432,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5317,8 +5471,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5350,8 +5510,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5383,8 +5549,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5416,8 +5588,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5449,8 +5627,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5482,8 +5666,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5515,8 +5705,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5548,8 +5744,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5581,8 +5783,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5614,8 +5822,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5647,8 +5861,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5680,8 +5900,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +5939,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5746,8 +5978,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +6017,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6056,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5845,8 +6095,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5878,8 +6134,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5911,8 +6173,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5944,8 +6212,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5977,8 +6251,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6010,8 +6290,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6043,8 +6329,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6076,8 +6368,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6109,8 +6407,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6142,8 +6446,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6175,8 +6485,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6208,8 +6524,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6241,8 +6563,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6274,8 +6602,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6307,8 +6641,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6340,8 +6680,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6373,8 +6719,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6406,8 +6758,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6439,8 +6797,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6472,8 +6836,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6502,15 +6872,15 @@
         <v>4982242.142012347</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>6.08</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L179" t="n">
@@ -6544,7 +6914,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6578,12 +6950,12 @@
         <v>5010873.084412347</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6620,7 +6992,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6657,7 +7031,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6694,7 +7070,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6731,7 +7109,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,7 +7148,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6805,7 +7187,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6842,7 +7226,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6879,7 +7265,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6916,7 +7304,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6953,7 +7343,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6990,7 +7382,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7027,7 +7421,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7064,7 +7460,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7101,7 +7499,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7138,7 +7538,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7175,7 +7577,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7212,7 +7616,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7249,7 +7655,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7286,7 +7694,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7323,7 +7733,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7360,7 +7772,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,7 +7811,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7434,7 +7850,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7471,7 +7889,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7508,7 +7928,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7545,7 +7967,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7582,7 +8006,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7619,7 +8045,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7656,7 +8084,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7693,7 +8123,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7730,7 +8162,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7767,7 +8201,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7804,7 +8240,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,7 +8279,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7878,7 +8318,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,7 +8357,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7952,7 +8396,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7989,7 +8435,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8026,7 +8474,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8063,7 +8513,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8100,7 +8552,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8137,7 +8591,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8174,7 +8630,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>6.21</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8208,180 +8666,214 @@
         <v>12044015.34302205</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="C226" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="D226" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="E226" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F226" t="n">
+        <v>306.1708</v>
+      </c>
+      <c r="G226" t="n">
+        <v>12044015.34302205</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="C227" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D227" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E227" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="F227" t="n">
+        <v>66334.1024</v>
+      </c>
+      <c r="G227" t="n">
+        <v>11977681.24062205</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C228" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E228" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F228" t="n">
+        <v>3306.3293</v>
+      </c>
+      <c r="G228" t="n">
+        <v>11977681.24062205</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C229" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="D229" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="E229" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F229" t="n">
+        <v>828.4516</v>
+      </c>
+      <c r="G229" t="n">
+        <v>11976852.78902205</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="C230" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="D230" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="E230" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="F230" t="n">
+        <v>102756.1138</v>
+      </c>
+      <c r="G230" t="n">
+        <v>12079608.90282205</v>
+      </c>
+      <c r="H230" t="n">
         <v>2</v>
       </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="C226" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="D226" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="E226" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="F226" t="n">
-        <v>306.1708</v>
-      </c>
-      <c r="G226" t="n">
-        <v>12044015.34302205</v>
-      </c>
-      <c r="H226" t="n">
-        <v>2</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="C227" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D227" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E227" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="F227" t="n">
-        <v>66334.1024</v>
-      </c>
-      <c r="G227" t="n">
-        <v>11977681.24062205</v>
-      </c>
-      <c r="H227" t="n">
-        <v>2</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="C228" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="D228" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="E228" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F228" t="n">
-        <v>3306.3293</v>
-      </c>
-      <c r="G228" t="n">
-        <v>11977681.24062205</v>
-      </c>
-      <c r="H228" t="n">
-        <v>2</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="C229" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="D229" t="n">
-        <v>6.28</v>
-      </c>
-      <c r="E229" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F229" t="n">
-        <v>828.4516</v>
-      </c>
-      <c r="G229" t="n">
-        <v>11976852.78902205</v>
-      </c>
-      <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="C230" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="D230" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="E230" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="F230" t="n">
-        <v>102756.1138</v>
-      </c>
-      <c r="G230" t="n">
-        <v>12079608.90282205</v>
-      </c>
-      <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>1</v>
+        <v>1.01110305958132</v>
       </c>
       <c r="M230" t="inlineStr"/>
     </row>
@@ -8606,7 +9098,7 @@
         <v>12526431.02032205</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8903,7 +9395,7 @@
         <v>12000595.96572205</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8936,7 +9428,7 @@
         <v>12000595.96572205</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8969,7 +9461,7 @@
         <v>11916886.91652205</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9002,7 +9494,7 @@
         <v>12021298.85372205</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9035,7 +9527,7 @@
         <v>11942456.32572205</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9068,7 +9560,7 @@
         <v>11942497.32572205</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9101,7 +9593,7 @@
         <v>11922196.29742205</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9134,7 +9626,7 @@
         <v>11922206.29742205</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9167,7 +9659,7 @@
         <v>11913835.29742205</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9200,7 +9692,7 @@
         <v>9738773.677722054</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9233,7 +9725,7 @@
         <v>9738783.677722054</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9266,7 +9758,7 @@
         <v>8888290.163022054</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9332,7 +9824,7 @@
         <v>8864315.45774759</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9365,7 +9857,7 @@
         <v>8492307.79864759</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -13556,7 +14048,7 @@
         <v>10836591.42150881</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13589,7 +14081,7 @@
         <v>10836591.42150881</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13622,7 +14114,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13655,7 +14147,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13688,7 +14180,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13721,7 +14213,7 @@
         <v>10825944.47417391</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13754,7 +14246,7 @@
         <v>10814471.78067392</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13787,7 +14279,7 @@
         <v>10788895.23687392</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13820,7 +14312,7 @@
         <v>10787981.80647391</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13853,7 +14345,7 @@
         <v>10950642.23027391</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13886,7 +14378,7 @@
         <v>10950642.23027391</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13919,7 +14411,7 @@
         <v>10406430.91807391</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13952,7 +14444,7 @@
         <v>10406430.91807391</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14150,7 +14642,7 @@
         <v>10736542.22547391</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14183,7 +14675,7 @@
         <v>10743008.22547391</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14216,7 +14708,7 @@
         <v>10742775.22547391</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14249,7 +14741,7 @@
         <v>10778200.6862509</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14282,7 +14774,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14315,7 +14807,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14348,7 +14840,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14381,7 +14873,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14414,7 +14906,7 @@
         <v>10550795.0851509</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14447,7 +14939,7 @@
         <v>10644381.5515509</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14480,7 +14972,7 @@
         <v>10644381.5515509</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14513,7 +15005,7 @@
         <v>10413181.9218509</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14546,7 +15038,7 @@
         <v>10512862.2210509</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14579,7 +15071,7 @@
         <v>10458357.3543509</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14612,7 +15104,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14645,7 +15137,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -22235,14 +22727,10 @@
         <v>7729683.126974342</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J650" t="n">
-        <v>5.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
@@ -22272,19 +22760,11 @@
         <v>7729693.126974342</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="J651" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22313,19 +22793,11 @@
         <v>7729723.126974342</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J652" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22354,14 +22826,10 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="J653" t="n">
-        <v>5.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
@@ -22391,19 +22859,11 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J654" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22432,19 +22892,11 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J655" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22473,14 +22925,10 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J656" t="n">
-        <v>5.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
@@ -22513,14 +22961,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22549,19 +22991,11 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J658" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22590,19 +23024,11 @@
         <v>7729763.126974342</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J659" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22631,19 +23057,11 @@
         <v>7507277.204274342</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J660" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22672,25 +23090,17 @@
         <v>7527298.128874342</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="J661" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
       <c r="M661" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-17 BackTest FAB.xlsx
+++ b/BackTest/2019-10-17 BackTest FAB.xlsx
@@ -451,7 +451,7 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>2101055.546856383</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6.35</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>2092694.647656383</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>2440265.899456383</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.32</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>3017046.737256383</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>3749463.944956383</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,19 @@
         <v>4634770.467256383</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +763,19 @@
         <v>5143545.678956383</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +804,19 @@
         <v>6333715.148156383</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.58</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +845,17 @@
         <v>5810078.693856383</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +884,17 @@
         <v>5688633.244356383</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +923,17 @@
         <v>5124160.031656383</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +962,17 @@
         <v>5253411.176656382</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1001,17 @@
         <v>5394544.149256382</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1040,17 @@
         <v>5009366.467156382</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1079,17 @@
         <v>4906681.014156383</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1118,17 @@
         <v>4906681.014156383</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,13 +1157,19 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>1.028227848101266</v>
       </c>
       <c r="M20" t="inlineStr"/>
     </row>
@@ -1078,7 +1196,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1229,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1262,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1295,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1328,7 @@
         <v>5103235.946056383</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1361,7 @@
         <v>4667215.380156383</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1375,7 +1493,7 @@
         <v>4854268.800256383</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1526,7 @@
         <v>5193757.507156382</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1559,7 @@
         <v>5193757.507156382</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1592,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1625,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1658,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1691,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1724,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1757,7 @@
         <v>5064017.947256383</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1790,7 @@
         <v>4937822.307156382</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1823,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1856,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1889,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1922,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1955,7 @@
         <v>4926957.459456382</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1988,7 @@
         <v>4916945.573156382</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2021,7 @@
         <v>4729757.190456382</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2054,7 @@
         <v>4694137.702856382</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -3157,14 +3275,10 @@
         <v>5109355.11771604</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>6.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
@@ -3194,19 +3308,11 @@
         <v>5057228.347816041</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="J85" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3238,14 +3344,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3274,14 +3374,10 @@
         <v>5053903.929616041</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="J87" t="n">
-        <v>6.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3311,19 +3407,11 @@
         <v>5053892.929616041</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3352,19 +3440,11 @@
         <v>5053881.929616041</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J89" t="n">
-        <v>6.22</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3426,14 +3506,10 @@
         <v>5180490.24231604</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="J91" t="n">
-        <v>6.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3463,19 +3539,11 @@
         <v>5180490.24231604</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J92" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3504,19 +3572,11 @@
         <v>5042655.69681604</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J93" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3545,19 +3605,11 @@
         <v>5042666.69681604</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3586,19 +3638,11 @@
         <v>5042604.74681604</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3630,14 +3674,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3666,19 +3704,11 @@
         <v>5042604.74681604</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3710,14 +3740,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3749,14 +3773,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3788,14 +3806,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3824,19 +3836,11 @@
         <v>4990254.71181604</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="J101" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3868,14 +3872,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3907,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3946,14 +3938,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3985,14 +3971,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4024,14 +4004,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4060,19 +4034,11 @@
         <v>4606249.91941604</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4101,19 +4067,11 @@
         <v>5598473.91441604</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="J108" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4145,14 +4103,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4184,14 +4136,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4223,14 +4169,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4262,14 +4202,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +4235,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4340,14 +4268,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4379,14 +4301,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4418,14 +4334,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4457,14 +4367,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4496,14 +4400,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +4433,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4574,14 +4466,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4613,14 +4499,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4652,14 +4532,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4565,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4730,14 +4598,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4769,14 +4631,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4808,14 +4664,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4847,14 +4697,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4886,14 +4730,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4763,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4964,14 +4796,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5003,14 +4829,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5042,14 +4862,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5081,14 +4895,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5120,14 +4928,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5159,14 +4961,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5198,14 +4994,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5237,14 +5027,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5276,14 +5060,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5315,14 +5093,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5354,14 +5126,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +5159,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +5192,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5471,14 +5225,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5510,14 +5258,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5549,14 +5291,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +5324,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5627,14 +5357,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5666,14 +5390,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5705,14 +5423,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5744,14 +5456,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5783,14 +5489,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5822,14 +5522,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5861,14 +5555,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5900,14 +5588,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5939,14 +5621,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5978,14 +5654,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6017,14 +5687,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6056,14 +5720,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6095,14 +5753,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6134,14 +5786,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6173,14 +5819,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6212,14 +5852,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6251,14 +5885,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6290,14 +5918,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6329,14 +5951,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6368,14 +5984,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6407,14 +6017,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6446,14 +6050,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6485,14 +6083,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6524,14 +6116,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6563,14 +6149,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6602,14 +6182,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6641,14 +6215,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6680,14 +6248,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6719,14 +6281,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6758,14 +6314,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6797,14 +6347,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6836,14 +6380,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6875,14 +6413,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6914,14 +6446,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6953,14 +6479,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6992,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7031,14 +6545,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7070,14 +6578,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7109,14 +6611,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7148,14 +6644,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7187,14 +6677,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7226,14 +6710,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7265,14 +6743,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7304,14 +6776,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7343,14 +6809,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7382,14 +6842,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7421,14 +6875,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7460,14 +6908,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7499,14 +6941,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7538,14 +6974,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7577,14 +7007,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7616,14 +7040,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7655,14 +7073,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7694,14 +7106,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7733,14 +7139,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7772,14 +7172,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7811,14 +7205,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7850,14 +7238,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7889,14 +7271,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7925,17 +7301,11 @@
         <v>10631602.98212537</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7964,17 +7334,11 @@
         <v>11803953.24682537</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8003,17 +7367,11 @@
         <v>11683233.26792537</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8042,17 +7400,11 @@
         <v>11652276.17042537</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8081,17 +7433,11 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8120,17 +7466,11 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8159,17 +7499,11 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8198,17 +7532,11 @@
         <v>11652172.32022537</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8237,17 +7565,11 @@
         <v>11604746.41882537</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8276,17 +7598,11 @@
         <v>12096970.26772205</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8318,14 +7634,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8354,17 +7664,11 @@
         <v>12096970.26772205</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8393,17 +7697,11 @@
         <v>12071622.98172205</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8432,17 +7730,11 @@
         <v>12071685.93172205</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8471,17 +7763,11 @@
         <v>12043920.39302205</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8513,14 +7799,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8552,14 +7832,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8588,17 +7862,11 @@
         <v>12044015.34302205</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8630,14 +7898,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8666,17 +7928,11 @@
         <v>12044015.34302205</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8705,17 +7961,11 @@
         <v>12044015.34302205</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8744,17 +7994,11 @@
         <v>11977681.24062205</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8783,17 +8027,11 @@
         <v>11977681.24062205</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8822,17 +8060,11 @@
         <v>11976852.78902205</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8864,16 +8096,10 @@
         <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
-        <v>1.01110305958132</v>
+        <v>1</v>
       </c>
       <c r="M230" t="inlineStr"/>
     </row>
@@ -8933,7 +8159,7 @@
         <v>12004460.28232205</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9065,7 +8291,7 @@
         <v>12217412.51082205</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9098,7 +8324,7 @@
         <v>12526431.02032205</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -14048,7 +13274,7 @@
         <v>10836591.42150881</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14081,7 +13307,7 @@
         <v>10836591.42150881</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14114,7 +13340,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14147,7 +13373,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14180,7 +13406,7 @@
         <v>10831132.84717391</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14213,7 +13439,7 @@
         <v>10825944.47417391</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14246,7 +13472,7 @@
         <v>10814471.78067392</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14279,7 +13505,7 @@
         <v>10788895.23687392</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14312,7 +13538,7 @@
         <v>10787981.80647391</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14345,7 +13571,7 @@
         <v>10950642.23027391</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14378,7 +13604,7 @@
         <v>10950642.23027391</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14411,7 +13637,7 @@
         <v>10406430.91807391</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14444,7 +13670,7 @@
         <v>10406430.91807391</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14642,7 +13868,7 @@
         <v>10736542.22547391</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14675,7 +13901,7 @@
         <v>10743008.22547391</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14708,7 +13934,7 @@
         <v>10742775.22547391</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14741,7 +13967,7 @@
         <v>10778200.6862509</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14774,7 +14000,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14807,7 +14033,7 @@
         <v>10778332.6862509</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14840,7 +14066,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14873,7 +14099,7 @@
         <v>10585558.8524509</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14906,7 +14132,7 @@
         <v>10550795.0851509</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14939,7 +14165,7 @@
         <v>10644381.5515509</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14972,7 +14198,7 @@
         <v>10644381.5515509</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15005,7 +14231,7 @@
         <v>10413181.9218509</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15038,7 +14264,7 @@
         <v>10512862.2210509</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15071,7 +14297,7 @@
         <v>10458357.3543509</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15104,7 +14330,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15137,7 +14363,7 @@
         <v>10461686.8279509</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
